--- a/ground-truth/DuplicationRootCauseSummary.xlsx
+++ b/ground-truth/DuplicationRootCauseSummary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mudongliang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mudongliang/Repos/crash_deduplication/ground-truth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFB0A02-AA76-5040-A861-76F838A713A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C742EF6-F936-ED47-8FD9-179E8486A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14500" yWindow="760" windowWidth="15740" windowHeight="17340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reproducible cases" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="过滤器2" guid="{B90F0A41-0D6B-44CF-8517-C701593CEACA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="过滤器1" guid="{C6A8E4E6-335C-4D96-B371-C3DCB691B86D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="过滤器2" guid="{B90F0A41-0D6B-44CF-8517-C701593CEACA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="932">
   <si>
     <t>Patch</t>
   </si>
@@ -2817,9 +2817,6 @@
   </si>
   <si>
     <t>f5aee46f361d79de0443249939ae4e3e6cb2e879</t>
-  </si>
-  <si>
-    <t>84fe4cc09abc</t>
   </si>
   <si>
     <t>6311f99a8d85bad8043738bc50d84fcf7435c396</t>
@@ -3069,7 +3066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3088,9 +3085,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3170,9 +3164,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3184,6 +3175,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3406,61 +3400,61 @@
   </sheetPr>
   <dimension ref="A1:AA468"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView topLeftCell="A431" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A448" sqref="A448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="64.83203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21" style="8" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.5" style="8"/>
+    <col min="1" max="1" width="12.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="64.83203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21" style="7" customWidth="1"/>
+    <col min="6" max="7" width="14.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>894</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -3469,10 +3463,10 @@
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E2" s="6"/>
@@ -3506,7 +3500,7 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6"/>
@@ -3516,10 +3510,10 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -3536,14 +3530,14 @@
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="14"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -3568,10 +3562,10 @@
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E5" s="6"/>
@@ -3605,7 +3599,7 @@
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="6"/>
@@ -3635,7 +3629,7 @@
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="14"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -3667,10 +3661,10 @@
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E8" s="6"/>
@@ -3704,7 +3698,7 @@
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="6"/>
@@ -3738,7 +3732,7 @@
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="6"/>
@@ -3768,7 +3762,7 @@
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="14"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -3800,10 +3794,10 @@
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E12" s="6"/>
@@ -3837,7 +3831,7 @@
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="6"/>
@@ -3867,7 +3861,7 @@
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3899,10 +3893,10 @@
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E15" s="6"/>
@@ -3936,7 +3930,7 @@
       <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="6"/>
@@ -3966,7 +3960,7 @@
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="14"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3998,10 +3992,10 @@
       <c r="B18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E18" s="6"/>
@@ -4035,7 +4029,7 @@
       <c r="B19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="6"/>
@@ -4069,7 +4063,7 @@
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="6"/>
@@ -4103,7 +4097,7 @@
       <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="6"/>
@@ -4137,7 +4131,7 @@
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="6"/>
@@ -4171,7 +4165,7 @@
       <c r="B23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="6"/>
@@ -4205,7 +4199,7 @@
       <c r="B24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="6"/>
@@ -4239,7 +4233,7 @@
       <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="6"/>
@@ -4273,7 +4267,7 @@
       <c r="B26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="6"/>
@@ -4303,7 +4297,7 @@
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="14"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -4335,10 +4329,10 @@
       <c r="B28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E28" s="6"/>
@@ -4372,10 +4366,10 @@
       <c r="B29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E29" s="6"/>
@@ -4409,7 +4403,7 @@
       <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E30" s="6"/>
@@ -4443,7 +4437,7 @@
       <c r="B31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="6"/>
@@ -4473,7 +4467,7 @@
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="14"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -4505,10 +4499,10 @@
       <c r="B33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E33" s="6"/>
@@ -4542,7 +4536,7 @@
       <c r="B34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="6"/>
@@ -4572,7 +4566,7 @@
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -4604,10 +4598,10 @@
       <c r="B36" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E36" s="6"/>
@@ -4641,10 +4635,10 @@
       <c r="B37" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E37" s="6"/>
@@ -4678,7 +4672,7 @@
       <c r="B38" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E38" s="6"/>
@@ -4712,7 +4706,7 @@
       <c r="B39" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>73</v>
       </c>
       <c r="E39" s="6"/>
@@ -4746,7 +4740,7 @@
       <c r="B40" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E40" s="6"/>
@@ -4780,7 +4774,7 @@
       <c r="B41" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>77</v>
       </c>
       <c r="E41" s="6"/>
@@ -4814,7 +4808,7 @@
       <c r="B42" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>79</v>
       </c>
       <c r="E42" s="6"/>
@@ -4848,7 +4842,7 @@
       <c r="B43" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>81</v>
       </c>
       <c r="E43" s="6"/>
@@ -4882,7 +4876,7 @@
       <c r="B44" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="6"/>
@@ -4916,7 +4910,7 @@
       <c r="B45" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>85</v>
       </c>
       <c r="E45" s="6"/>
@@ -4950,7 +4944,7 @@
       <c r="B46" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E46" s="6"/>
@@ -4984,7 +4978,7 @@
       <c r="B47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>89</v>
       </c>
       <c r="E47" s="6"/>
@@ -5018,7 +5012,7 @@
       <c r="B48" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>91</v>
       </c>
       <c r="E48" s="6"/>
@@ -5052,7 +5046,7 @@
       <c r="B49" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>93</v>
       </c>
       <c r="E49" s="6"/>
@@ -5086,7 +5080,7 @@
       <c r="B50" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>95</v>
       </c>
       <c r="E50" s="6"/>
@@ -5116,7 +5110,7 @@
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="15"/>
+      <c r="C51" s="14"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -5148,10 +5142,10 @@
       <c r="B52" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E52" s="6"/>
@@ -5185,10 +5179,10 @@
       <c r="B53" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E53" s="6"/>
@@ -5222,7 +5216,7 @@
       <c r="B54" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>102</v>
       </c>
       <c r="E54" s="6"/>
@@ -5256,7 +5250,7 @@
       <c r="B55" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>104</v>
       </c>
       <c r="E55" s="6"/>
@@ -5286,7 +5280,7 @@
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="15"/>
+      <c r="C56" s="14"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -5318,10 +5312,10 @@
       <c r="B57" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E57" s="6"/>
@@ -5355,7 +5349,7 @@
       <c r="B58" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E58" s="6"/>
@@ -5385,7 +5379,7 @@
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="15"/>
+      <c r="C59" s="14"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -5417,10 +5411,10 @@
       <c r="B60" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E60" s="6"/>
@@ -5454,7 +5448,7 @@
       <c r="B61" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>114</v>
       </c>
       <c r="E61" s="6"/>
@@ -5484,7 +5478,7 @@
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="15"/>
+      <c r="C62" s="14"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -5516,10 +5510,10 @@
       <c r="B63" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E63" s="6"/>
@@ -5553,7 +5547,7 @@
       <c r="B64" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E64" s="6"/>
@@ -5587,7 +5581,7 @@
       <c r="B65" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E65" s="6"/>
@@ -5617,7 +5611,7 @@
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="15"/>
+      <c r="C66" s="14"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -5649,10 +5643,10 @@
       <c r="B67" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E67" s="6"/>
@@ -5686,7 +5680,7 @@
       <c r="B68" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>126</v>
       </c>
       <c r="E68" s="6"/>
@@ -5716,7 +5710,7 @@
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="15"/>
+      <c r="C69" s="14"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -5742,16 +5736,16 @@
       <c r="AA69" s="6"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="16" t="s">
         <v>804</v>
       </c>
       <c r="F70" s="6"/>
@@ -5778,16 +5772,16 @@
       <c r="AA70" s="6"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="17"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -5814,7 +5808,7 @@
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="15"/>
+      <c r="C72" s="14"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -5846,10 +5840,10 @@
       <c r="B73" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E73" s="6"/>
@@ -5883,10 +5877,10 @@
       <c r="B74" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E74" s="6"/>
@@ -5920,7 +5914,7 @@
       <c r="B75" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="12" t="s">
         <v>138</v>
       </c>
       <c r="E75" s="6"/>
@@ -5954,7 +5948,7 @@
       <c r="B76" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="12" t="s">
         <v>140</v>
       </c>
       <c r="E76" s="6"/>
@@ -5988,7 +5982,7 @@
       <c r="B77" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>142</v>
       </c>
       <c r="E77" s="6"/>
@@ -6018,7 +6012,7 @@
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="15"/>
+      <c r="C78" s="14"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -6050,10 +6044,10 @@
       <c r="B79" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E79" s="6"/>
@@ -6087,7 +6081,7 @@
       <c r="B80" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>147</v>
       </c>
       <c r="E80" s="6"/>
@@ -6117,7 +6111,7 @@
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="15"/>
+      <c r="C81" s="14"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -6149,10 +6143,10 @@
       <c r="B82" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E82" s="6"/>
@@ -6186,10 +6180,10 @@
       <c r="B83" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E83" s="6"/>
@@ -6223,7 +6217,7 @@
       <c r="B84" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="18" t="s">
         <v>154</v>
       </c>
       <c r="E84" s="6"/>
@@ -6253,7 +6247,7 @@
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="15"/>
+      <c r="C85" s="14"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -6285,10 +6279,10 @@
       <c r="B86" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E86" s="6"/>
@@ -6322,7 +6316,7 @@
       <c r="B87" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="12" t="s">
         <v>159</v>
       </c>
       <c r="E87" s="6"/>
@@ -6352,7 +6346,7 @@
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="15"/>
+      <c r="C88" s="14"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -6384,10 +6378,10 @@
       <c r="B89" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E89" s="6"/>
@@ -6421,7 +6415,7 @@
       <c r="B90" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="12" t="s">
         <v>164</v>
       </c>
       <c r="E90" s="6"/>
@@ -6451,7 +6445,7 @@
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="15"/>
+      <c r="C91" s="14"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -6483,10 +6477,10 @@
       <c r="B92" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E92" s="6"/>
@@ -6520,10 +6514,10 @@
       <c r="B93" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E93" s="6"/>
@@ -6557,7 +6551,7 @@
       <c r="B94" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="12" t="s">
         <v>171</v>
       </c>
       <c r="E94" s="6"/>
@@ -6591,7 +6585,7 @@
       <c r="B95" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
         <v>173</v>
       </c>
       <c r="E95" s="6"/>
@@ -6625,7 +6619,7 @@
       <c r="B96" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="12" t="s">
         <v>175</v>
       </c>
       <c r="E96" s="6"/>
@@ -6659,7 +6653,7 @@
       <c r="B97" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E97" s="6"/>
@@ -6689,7 +6683,7 @@
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="15"/>
+      <c r="C98" s="14"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -6721,10 +6715,10 @@
       <c r="B99" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E99" s="6"/>
@@ -6758,10 +6752,10 @@
       <c r="B100" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E100" s="6"/>
@@ -6795,7 +6789,7 @@
       <c r="B101" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="19" t="s">
         <v>184</v>
       </c>
       <c r="F101" s="6"/>
@@ -6828,7 +6822,7 @@
       <c r="B102" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="12" t="s">
         <v>186</v>
       </c>
       <c r="E102" s="6"/>
@@ -6862,7 +6856,7 @@
       <c r="B103" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="12" t="s">
         <v>188</v>
       </c>
       <c r="E103" s="6"/>
@@ -6896,7 +6890,7 @@
       <c r="B104" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E104" s="6"/>
@@ -6926,7 +6920,7 @@
     <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
-      <c r="C105" s="15"/>
+      <c r="C105" s="14"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -6958,10 +6952,10 @@
       <c r="B106" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E106" s="6"/>
@@ -6995,7 +6989,7 @@
       <c r="B107" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E107" s="6"/>
@@ -7025,7 +7019,7 @@
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
-      <c r="C108" s="15"/>
+      <c r="C108" s="14"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -7057,10 +7051,10 @@
       <c r="B109" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E109" s="6"/>
@@ -7094,7 +7088,7 @@
       <c r="B110" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="12" t="s">
         <v>200</v>
       </c>
       <c r="E110" s="6"/>
@@ -7124,7 +7118,7 @@
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
-      <c r="C111" s="15"/>
+      <c r="C111" s="14"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -7156,10 +7150,10 @@
       <c r="B112" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="7" t="s">
         <v>777</v>
       </c>
       <c r="F112" s="6"/>
@@ -7192,7 +7186,7 @@
       <c r="B113" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="12" t="s">
         <v>205</v>
       </c>
       <c r="E113" s="6"/>
@@ -7222,7 +7216,7 @@
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="15"/>
+      <c r="C114" s="14"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -7248,16 +7242,16 @@
       <c r="AA114" s="6"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E115" s="17" t="s">
+      <c r="E115" s="16" t="s">
         <v>891</v>
       </c>
       <c r="F115" s="6"/>
@@ -7284,16 +7278,16 @@
       <c r="AA115" s="6"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D116" s="17"/>
+      <c r="D116" s="16"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -7321,7 +7315,7 @@
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="15"/>
+      <c r="C117" s="14"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -7353,10 +7347,10 @@
       <c r="B118" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E118" s="6"/>
@@ -7390,7 +7384,7 @@
       <c r="B119" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="12" t="s">
         <v>215</v>
       </c>
       <c r="E119" s="6"/>
@@ -7420,7 +7414,7 @@
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="15"/>
+      <c r="C120" s="14"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -7452,10 +7446,10 @@
       <c r="B121" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E121" s="6"/>
@@ -7489,10 +7483,10 @@
       <c r="B122" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E122" s="6"/>
@@ -7526,7 +7520,7 @@
       <c r="B123" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="12" t="s">
         <v>222</v>
       </c>
       <c r="E123" s="6"/>
@@ -7560,7 +7554,7 @@
       <c r="B124" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="12" t="s">
         <v>224</v>
       </c>
       <c r="E124" s="6"/>
@@ -7594,7 +7588,7 @@
       <c r="B125" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="12" t="s">
         <v>226</v>
       </c>
       <c r="E125" s="6"/>
@@ -7624,7 +7618,7 @@
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="15"/>
+      <c r="C126" s="14"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -7656,10 +7650,10 @@
       <c r="B127" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E127" s="6"/>
@@ -7687,13 +7681,13 @@
       <c r="AA127" s="6"/>
     </row>
     <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="20" t="s">
         <v>227</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="C128" s="12" t="s">
         <v>231</v>
       </c>
       <c r="E128" s="6"/>
@@ -7723,7 +7717,7 @@
     <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
-      <c r="C129" s="15"/>
+      <c r="C129" s="14"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
@@ -7755,10 +7749,10 @@
       <c r="B130" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E130" s="6"/>
@@ -7792,10 +7786,10 @@
       <c r="B131" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E131" s="6"/>
@@ -7829,7 +7823,7 @@
       <c r="B132" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="12" t="s">
         <v>238</v>
       </c>
       <c r="E132" s="6"/>
@@ -7863,7 +7857,7 @@
       <c r="B133" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="12" t="s">
         <v>240</v>
       </c>
       <c r="E133" s="6"/>
@@ -7897,7 +7891,7 @@
       <c r="B134" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="12" t="s">
         <v>242</v>
       </c>
       <c r="E134" s="6"/>
@@ -7931,7 +7925,7 @@
       <c r="B135" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="12" t="s">
         <v>244</v>
       </c>
       <c r="E135" s="6"/>
@@ -7961,7 +7955,7 @@
     <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
-      <c r="C136" s="15"/>
+      <c r="C136" s="14"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -7993,10 +7987,10 @@
       <c r="B137" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E137" s="6"/>
@@ -8030,7 +8024,7 @@
       <c r="B138" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="12" t="s">
         <v>249</v>
       </c>
       <c r="E138" s="6"/>
@@ -8064,7 +8058,7 @@
       <c r="B139" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="12" t="s">
         <v>251</v>
       </c>
       <c r="E139" s="6"/>
@@ -8098,7 +8092,7 @@
       <c r="B140" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="12" t="s">
         <v>253</v>
       </c>
       <c r="E140" s="6"/>
@@ -8128,7 +8122,7 @@
     <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
-      <c r="C141" s="15"/>
+      <c r="C141" s="14"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -8160,10 +8154,10 @@
       <c r="B142" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E142" s="6"/>
@@ -8197,7 +8191,7 @@
       <c r="B143" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="12" t="s">
         <v>258</v>
       </c>
       <c r="E143" s="6"/>
@@ -8231,7 +8225,7 @@
       <c r="B144" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="12" t="s">
         <v>260</v>
       </c>
       <c r="E144" s="6"/>
@@ -8265,7 +8259,7 @@
       <c r="B145" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="12" t="s">
         <v>262</v>
       </c>
       <c r="E145" s="6"/>
@@ -8299,7 +8293,7 @@
       <c r="B146" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="12" t="s">
         <v>264</v>
       </c>
       <c r="E146" s="6"/>
@@ -8333,7 +8327,7 @@
       <c r="B147" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C147" s="12" t="s">
         <v>266</v>
       </c>
       <c r="E147" s="6"/>
@@ -8367,7 +8361,7 @@
       <c r="B148" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="C148" s="12" t="s">
         <v>268</v>
       </c>
       <c r="E148" s="6"/>
@@ -8401,7 +8395,7 @@
       <c r="B149" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="C149" s="12" t="s">
         <v>270</v>
       </c>
       <c r="E149" s="6"/>
@@ -8435,7 +8429,7 @@
       <c r="B150" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="12" t="s">
         <v>272</v>
       </c>
       <c r="E150" s="6"/>
@@ -8469,7 +8463,7 @@
       <c r="B151" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="12" t="s">
         <v>274</v>
       </c>
       <c r="E151" s="6"/>
@@ -8499,7 +8493,7 @@
     <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
-      <c r="C152" s="15"/>
+      <c r="C152" s="14"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
@@ -8531,10 +8525,10 @@
       <c r="B153" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="7" t="s">
         <v>799</v>
       </c>
       <c r="E153" s="6"/>
@@ -8568,10 +8562,10 @@
       <c r="B154" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E154" s="6"/>
@@ -8605,7 +8599,7 @@
       <c r="B155" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="12" t="s">
         <v>281</v>
       </c>
       <c r="E155" s="6"/>
@@ -8639,7 +8633,7 @@
       <c r="B156" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="12" t="s">
         <v>283</v>
       </c>
       <c r="E156" s="6"/>
@@ -8673,7 +8667,7 @@
       <c r="B157" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="12" t="s">
         <v>285</v>
       </c>
       <c r="E157" s="6"/>
@@ -8703,7 +8697,7 @@
     <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
-      <c r="C158" s="15"/>
+      <c r="C158" s="14"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
@@ -8735,10 +8729,10 @@
       <c r="B159" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C159" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E159" s="6"/>
@@ -8772,7 +8766,7 @@
       <c r="B160" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="12" t="s">
         <v>290</v>
       </c>
       <c r="E160" s="6"/>
@@ -8802,7 +8796,7 @@
     <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
-      <c r="C161" s="15"/>
+      <c r="C161" s="14"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
@@ -8834,10 +8828,10 @@
       <c r="B162" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E162" s="6"/>
@@ -8871,7 +8865,7 @@
       <c r="B163" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="12" t="s">
         <v>295</v>
       </c>
       <c r="E163" s="6"/>
@@ -8901,7 +8895,7 @@
     <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
-      <c r="C164" s="15"/>
+      <c r="C164" s="14"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -8933,10 +8927,10 @@
       <c r="B165" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E165" s="6"/>
@@ -8970,7 +8964,7 @@
       <c r="B166" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="12" t="s">
         <v>300</v>
       </c>
       <c r="E166" s="6"/>
@@ -9000,7 +8994,7 @@
     <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
-      <c r="C167" s="15"/>
+      <c r="C167" s="14"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
@@ -9032,10 +9026,10 @@
       <c r="B168" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E168" s="6"/>
@@ -9069,7 +9063,7 @@
       <c r="B169" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="12" t="s">
         <v>305</v>
       </c>
       <c r="E169" s="6"/>
@@ -9099,7 +9093,7 @@
     <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
-      <c r="C170" s="15"/>
+      <c r="C170" s="14"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
@@ -9131,10 +9125,10 @@
       <c r="B171" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="C171" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E171" s="6"/>
@@ -9168,7 +9162,7 @@
       <c r="B172" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="12" t="s">
         <v>310</v>
       </c>
       <c r="E172" s="6"/>
@@ -9202,7 +9196,7 @@
       <c r="B173" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="12" t="s">
         <v>312</v>
       </c>
       <c r="E173" s="6"/>
@@ -9232,7 +9226,7 @@
     <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
-      <c r="C174" s="15"/>
+      <c r="C174" s="14"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
@@ -9264,10 +9258,10 @@
       <c r="B175" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E175" s="6"/>
@@ -9301,7 +9295,7 @@
       <c r="B176" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="12" t="s">
         <v>317</v>
       </c>
       <c r="E176" s="6"/>
@@ -9335,7 +9329,7 @@
       <c r="B177" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="12" t="s">
         <v>319</v>
       </c>
       <c r="E177" s="6"/>
@@ -9365,7 +9359,7 @@
     <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
-      <c r="C178" s="15"/>
+      <c r="C178" s="14"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -9397,10 +9391,10 @@
       <c r="B179" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E179" s="6"/>
@@ -9434,7 +9428,7 @@
       <c r="B180" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="12" t="s">
         <v>324</v>
       </c>
       <c r="E180" s="6"/>
@@ -9468,7 +9462,7 @@
       <c r="B181" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="12" t="s">
         <v>326</v>
       </c>
       <c r="E181" s="6"/>
@@ -9498,7 +9492,7 @@
     <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
-      <c r="C182" s="15"/>
+      <c r="C182" s="14"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
@@ -9530,10 +9524,10 @@
       <c r="B183" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D183" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E183" s="6"/>
@@ -9567,7 +9561,7 @@
       <c r="B184" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="12" t="s">
         <v>331</v>
       </c>
       <c r="E184" s="6"/>
@@ -9597,7 +9591,7 @@
     <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
-      <c r="C185" s="15"/>
+      <c r="C185" s="14"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
@@ -9629,10 +9623,10 @@
       <c r="B186" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D186" s="8" t="s">
+      <c r="D186" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E186" s="6"/>
@@ -9666,7 +9660,7 @@
       <c r="B187" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="12" t="s">
         <v>336</v>
       </c>
       <c r="E187" s="6"/>
@@ -9696,7 +9690,7 @@
     <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
-      <c r="C188" s="15"/>
+      <c r="C188" s="14"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -9728,10 +9722,10 @@
       <c r="B189" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C189" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="D189" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E189" s="6"/>
@@ -9765,7 +9759,7 @@
       <c r="B190" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C190" s="13" t="s">
+      <c r="C190" s="12" t="s">
         <v>341</v>
       </c>
       <c r="E190" s="6"/>
@@ -9795,7 +9789,7 @@
     <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
-      <c r="C191" s="15"/>
+      <c r="C191" s="14"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
@@ -9827,10 +9821,10 @@
       <c r="B192" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C192" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E192" s="6"/>
@@ -9864,7 +9858,7 @@
       <c r="B193" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C193" s="13" t="s">
+      <c r="C193" s="12" t="s">
         <v>346</v>
       </c>
       <c r="E193" s="6"/>
@@ -9894,7 +9888,7 @@
     <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
-      <c r="C194" s="15"/>
+      <c r="C194" s="14"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
@@ -9926,10 +9920,10 @@
       <c r="B195" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C195" s="13" t="s">
+      <c r="C195" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="7" t="s">
         <v>889</v>
       </c>
       <c r="E195" s="6"/>
@@ -9963,7 +9957,7 @@
       <c r="B196" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="C196" s="12" t="s">
         <v>351</v>
       </c>
       <c r="E196" s="6"/>
@@ -9993,7 +9987,7 @@
     <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
-      <c r="C197" s="15"/>
+      <c r="C197" s="14"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -10025,10 +10019,10 @@
       <c r="B198" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C198" s="13" t="s">
+      <c r="C198" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D198" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E198" s="6"/>
@@ -10062,7 +10056,7 @@
       <c r="B199" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="C199" s="12" t="s">
         <v>356</v>
       </c>
       <c r="E199" s="6"/>
@@ -10092,7 +10086,7 @@
     <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
-      <c r="C200" s="15"/>
+      <c r="C200" s="14"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
@@ -10124,10 +10118,10 @@
       <c r="B201" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C201" s="13" t="s">
+      <c r="C201" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D201" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E201" s="6"/>
@@ -10161,7 +10155,7 @@
       <c r="B202" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="C202" s="12" t="s">
         <v>361</v>
       </c>
       <c r="E202" s="6"/>
@@ -10195,7 +10189,7 @@
       <c r="B203" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C203" s="13" t="s">
+      <c r="C203" s="12" t="s">
         <v>363</v>
       </c>
       <c r="E203" s="6"/>
@@ -10225,7 +10219,7 @@
     <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
-      <c r="C204" s="15"/>
+      <c r="C204" s="14"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -10257,10 +10251,10 @@
       <c r="B205" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C205" s="13" t="s">
+      <c r="C205" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="D205" s="8" t="s">
+      <c r="D205" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E205" s="6"/>
@@ -10294,10 +10288,10 @@
       <c r="B206" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C206" s="13" t="s">
+      <c r="C206" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="D206" s="8" t="s">
+      <c r="D206" s="7" t="s">
         <v>799</v>
       </c>
       <c r="E206" s="6"/>
@@ -10331,10 +10325,10 @@
       <c r="B207" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C207" s="13" t="s">
+      <c r="C207" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E207" s="6"/>
@@ -10368,7 +10362,7 @@
       <c r="B208" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C208" s="13" t="s">
+      <c r="C208" s="12" t="s">
         <v>372</v>
       </c>
       <c r="E208" s="6"/>
@@ -10402,7 +10396,7 @@
       <c r="B209" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C209" s="13" t="s">
+      <c r="C209" s="12" t="s">
         <v>374</v>
       </c>
       <c r="E209" s="6"/>
@@ -10436,7 +10430,7 @@
       <c r="B210" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C210" s="13" t="s">
+      <c r="C210" s="12" t="s">
         <v>376</v>
       </c>
       <c r="E210" s="6"/>
@@ -10470,7 +10464,7 @@
       <c r="B211" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C211" s="13" t="s">
+      <c r="C211" s="12" t="s">
         <v>378</v>
       </c>
       <c r="E211" s="6"/>
@@ -10504,7 +10498,7 @@
       <c r="B212" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C212" s="13" t="s">
+      <c r="C212" s="12" t="s">
         <v>380</v>
       </c>
       <c r="E212" s="6"/>
@@ -10538,7 +10532,7 @@
       <c r="B213" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C213" s="13" t="s">
+      <c r="C213" s="12" t="s">
         <v>382</v>
       </c>
       <c r="E213" s="6"/>
@@ -10572,7 +10566,7 @@
       <c r="B214" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="C214" s="12" t="s">
         <v>384</v>
       </c>
       <c r="E214" s="6"/>
@@ -10606,7 +10600,7 @@
       <c r="B215" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C215" s="13" t="s">
+      <c r="C215" s="12" t="s">
         <v>386</v>
       </c>
       <c r="E215" s="6"/>
@@ -10640,7 +10634,7 @@
       <c r="B216" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C216" s="13" t="s">
+      <c r="C216" s="12" t="s">
         <v>388</v>
       </c>
       <c r="E216" s="6"/>
@@ -10674,7 +10668,7 @@
       <c r="B217" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C217" s="13" t="s">
+      <c r="C217" s="12" t="s">
         <v>390</v>
       </c>
       <c r="E217" s="6"/>
@@ -10708,7 +10702,7 @@
       <c r="B218" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C218" s="13" t="s">
+      <c r="C218" s="12" t="s">
         <v>392</v>
       </c>
       <c r="E218" s="6"/>
@@ -10742,7 +10736,7 @@
       <c r="B219" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C219" s="13" t="s">
+      <c r="C219" s="12" t="s">
         <v>394</v>
       </c>
       <c r="E219" s="6"/>
@@ -10776,7 +10770,7 @@
       <c r="B220" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="C220" s="12" t="s">
         <v>396</v>
       </c>
       <c r="E220" s="6"/>
@@ -10810,7 +10804,7 @@
       <c r="B221" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C221" s="13" t="s">
+      <c r="C221" s="12" t="s">
         <v>398</v>
       </c>
       <c r="E221" s="6"/>
@@ -10844,7 +10838,7 @@
       <c r="B222" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C222" s="13" t="s">
+      <c r="C222" s="12" t="s">
         <v>400</v>
       </c>
       <c r="E222" s="6"/>
@@ -10874,7 +10868,7 @@
     <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
-      <c r="C223" s="15"/>
+      <c r="C223" s="14"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -10906,10 +10900,10 @@
       <c r="B224" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C224" s="13" t="s">
+      <c r="C224" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="D224" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E224" s="6"/>
@@ -10943,7 +10937,7 @@
       <c r="B225" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C225" s="13" t="s">
+      <c r="C225" s="12" t="s">
         <v>405</v>
       </c>
       <c r="E225" s="6"/>
@@ -10973,7 +10967,7 @@
     <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
-      <c r="C226" s="15"/>
+      <c r="C226" s="14"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
@@ -11005,10 +10999,10 @@
       <c r="B227" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C227" s="13" t="s">
+      <c r="C227" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="D227" s="8" t="s">
+      <c r="D227" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E227" s="6"/>
@@ -11042,7 +11036,7 @@
       <c r="B228" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C228" s="13" t="s">
+      <c r="C228" s="12" t="s">
         <v>410</v>
       </c>
       <c r="E228" s="6"/>
@@ -11072,7 +11066,7 @@
     <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
-      <c r="C229" s="15"/>
+      <c r="C229" s="14"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
@@ -11104,10 +11098,10 @@
       <c r="B230" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C230" s="13" t="s">
+      <c r="C230" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="D230" s="8" t="s">
+      <c r="D230" s="7" t="s">
         <v>799</v>
       </c>
       <c r="E230" s="6"/>
@@ -11141,7 +11135,7 @@
       <c r="B231" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C231" s="13" t="s">
+      <c r="C231" s="12" t="s">
         <v>415</v>
       </c>
       <c r="E231" s="6"/>
@@ -11171,7 +11165,7 @@
     <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
-      <c r="C232" s="15"/>
+      <c r="C232" s="14"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
@@ -11203,10 +11197,10 @@
       <c r="B233" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C233" s="13" t="s">
+      <c r="C233" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="D233" s="8" t="s">
+      <c r="D233" s="7" t="s">
         <v>799</v>
       </c>
       <c r="E233" s="6"/>
@@ -11240,7 +11234,7 @@
       <c r="B234" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C234" s="13" t="s">
+      <c r="C234" s="12" t="s">
         <v>420</v>
       </c>
       <c r="E234" s="6"/>
@@ -11270,7 +11264,7 @@
     <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
-      <c r="C235" s="15"/>
+      <c r="C235" s="14"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
@@ -11302,10 +11296,10 @@
       <c r="B236" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C236" s="13" t="s">
+      <c r="C236" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D236" s="8" t="s">
+      <c r="D236" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E236" s="6"/>
@@ -11339,7 +11333,7 @@
       <c r="B237" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C237" s="13" t="s">
+      <c r="C237" s="12" t="s">
         <v>425</v>
       </c>
       <c r="E237" s="6"/>
@@ -11369,7 +11363,7 @@
     <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
-      <c r="C238" s="15"/>
+      <c r="C238" s="14"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
@@ -11401,10 +11395,10 @@
       <c r="B239" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C239" s="13" t="s">
+      <c r="C239" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D239" s="8" t="s">
+      <c r="D239" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E239" s="6"/>
@@ -11438,7 +11432,7 @@
       <c r="B240" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C240" s="13" t="s">
+      <c r="C240" s="12" t="s">
         <v>430</v>
       </c>
       <c r="E240" s="6"/>
@@ -11468,7 +11462,7 @@
     <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
-      <c r="C241" s="15"/>
+      <c r="C241" s="14"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
@@ -11500,10 +11494,10 @@
       <c r="B242" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C242" s="13" t="s">
+      <c r="C242" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="D242" s="8" t="s">
+      <c r="D242" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E242" s="6"/>
@@ -11537,7 +11531,7 @@
       <c r="B243" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C243" s="13" t="s">
+      <c r="C243" s="12" t="s">
         <v>435</v>
       </c>
       <c r="E243" s="6"/>
@@ -11567,7 +11561,7 @@
     <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
-      <c r="C244" s="15"/>
+      <c r="C244" s="14"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
@@ -11599,10 +11593,10 @@
       <c r="B245" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C245" s="13" t="s">
+      <c r="C245" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D245" s="8" t="s">
+      <c r="D245" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E245" s="6"/>
@@ -11636,7 +11630,7 @@
       <c r="B246" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C246" s="13" t="s">
+      <c r="C246" s="12" t="s">
         <v>440</v>
       </c>
       <c r="E246" s="6"/>
@@ -11670,7 +11664,7 @@
       <c r="B247" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C247" s="13" t="s">
+      <c r="C247" s="12" t="s">
         <v>442</v>
       </c>
       <c r="E247" s="6"/>
@@ -11700,7 +11694,7 @@
     <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
-      <c r="C248" s="15"/>
+      <c r="C248" s="14"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
@@ -11732,10 +11726,10 @@
       <c r="B249" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C249" s="13" t="s">
+      <c r="C249" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="D249" s="8" t="s">
+      <c r="D249" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E249" s="6"/>
@@ -11769,7 +11763,7 @@
       <c r="B250" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C250" s="13" t="s">
+      <c r="C250" s="12" t="s">
         <v>447</v>
       </c>
       <c r="E250" s="6"/>
@@ -11803,7 +11797,7 @@
       <c r="B251" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C251" s="13" t="s">
+      <c r="C251" s="12" t="s">
         <v>449</v>
       </c>
       <c r="E251" s="6"/>
@@ -11837,7 +11831,7 @@
       <c r="B252" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C252" s="13" t="s">
+      <c r="C252" s="12" t="s">
         <v>451</v>
       </c>
       <c r="E252" s="6"/>
@@ -11871,7 +11865,7 @@
       <c r="B253" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C253" s="13" t="s">
+      <c r="C253" s="12" t="s">
         <v>453</v>
       </c>
       <c r="E253" s="6"/>
@@ -11901,7 +11895,7 @@
     <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
-      <c r="C254" s="13"/>
+      <c r="C254" s="12"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
@@ -11933,10 +11927,10 @@
       <c r="B255" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C255" s="13" t="s">
+      <c r="C255" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="D255" s="8" t="s">
+      <c r="D255" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E255" s="6"/>
@@ -11970,10 +11964,10 @@
       <c r="B256" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C256" s="13" t="s">
+      <c r="C256" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="D256" s="8" t="s">
+      <c r="D256" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E256" s="6"/>
@@ -12007,7 +12001,7 @@
       <c r="B257" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C257" s="13" t="s">
+      <c r="C257" s="12" t="s">
         <v>460</v>
       </c>
       <c r="D257" s="4" t="s">
@@ -12044,7 +12038,7 @@
       <c r="B258" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C258" s="13" t="s">
+      <c r="C258" s="12" t="s">
         <v>462</v>
       </c>
       <c r="E258" s="6"/>
@@ -12078,7 +12072,7 @@
       <c r="B259" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C259" s="13" t="s">
+      <c r="C259" s="12" t="s">
         <v>464</v>
       </c>
       <c r="E259" s="6"/>
@@ -12112,7 +12106,7 @@
       <c r="B260" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C260" s="13" t="s">
+      <c r="C260" s="12" t="s">
         <v>466</v>
       </c>
       <c r="E260" s="6"/>
@@ -12146,7 +12140,7 @@
       <c r="B261" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C261" s="13" t="s">
+      <c r="C261" s="12" t="s">
         <v>468</v>
       </c>
       <c r="E261" s="6"/>
@@ -12180,7 +12174,7 @@
       <c r="B262" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C262" s="13" t="s">
+      <c r="C262" s="12" t="s">
         <v>470</v>
       </c>
       <c r="E262" s="6"/>
@@ -12214,7 +12208,7 @@
       <c r="B263" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C263" s="13" t="s">
+      <c r="C263" s="12" t="s">
         <v>472</v>
       </c>
       <c r="E263" s="6"/>
@@ -12248,7 +12242,7 @@
       <c r="B264" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C264" s="13" t="s">
+      <c r="C264" s="12" t="s">
         <v>474</v>
       </c>
       <c r="E264" s="6"/>
@@ -12282,7 +12276,7 @@
       <c r="B265" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C265" s="13" t="s">
+      <c r="C265" s="12" t="s">
         <v>476</v>
       </c>
       <c r="E265" s="6"/>
@@ -12316,7 +12310,7 @@
       <c r="B266" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C266" s="13" t="s">
+      <c r="C266" s="12" t="s">
         <v>478</v>
       </c>
       <c r="E266" s="6"/>
@@ -12350,7 +12344,7 @@
       <c r="B267" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C267" s="13" t="s">
+      <c r="C267" s="12" t="s">
         <v>480</v>
       </c>
       <c r="E267" s="6"/>
@@ -12384,7 +12378,7 @@
       <c r="B268" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C268" s="13" t="s">
+      <c r="C268" s="12" t="s">
         <v>482</v>
       </c>
       <c r="E268" s="6"/>
@@ -12414,7 +12408,7 @@
     <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
-      <c r="C269" s="15"/>
+      <c r="C269" s="14"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
@@ -12446,10 +12440,10 @@
       <c r="B270" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="C270" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="D270" s="8" t="s">
+      <c r="D270" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E270" s="6"/>
@@ -12483,7 +12477,7 @@
       <c r="B271" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C271" s="13" t="s">
+      <c r="C271" s="12" t="s">
         <v>487</v>
       </c>
       <c r="E271" s="6"/>
@@ -12513,7 +12507,7 @@
     <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
-      <c r="C272" s="15"/>
+      <c r="C272" s="14"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -12545,10 +12539,10 @@
       <c r="B273" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C273" s="13" t="s">
+      <c r="C273" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="D273" s="8" t="s">
+      <c r="D273" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E273" s="6"/>
@@ -12582,7 +12576,7 @@
       <c r="B274" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C274" s="13" t="s">
+      <c r="C274" s="12" t="s">
         <v>492</v>
       </c>
       <c r="E274" s="6"/>
@@ -12612,7 +12606,7 @@
     <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
-      <c r="C275" s="15"/>
+      <c r="C275" s="14"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
@@ -12644,10 +12638,10 @@
       <c r="B276" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C276" s="13" t="s">
+      <c r="C276" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="D276" s="8" t="s">
+      <c r="D276" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E276" s="6"/>
@@ -12680,7 +12674,7 @@
       <c r="B277" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C277" s="13" t="s">
+      <c r="C277" s="12" t="s">
         <v>497</v>
       </c>
       <c r="E277" s="6"/>
@@ -12714,7 +12708,7 @@
       <c r="B278" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C278" s="13" t="s">
+      <c r="C278" s="12" t="s">
         <v>499</v>
       </c>
       <c r="E278" s="6"/>
@@ -12748,7 +12742,7 @@
       <c r="B279" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C279" s="13" t="s">
+      <c r="C279" s="12" t="s">
         <v>501</v>
       </c>
       <c r="E279" s="6"/>
@@ -12778,7 +12772,7 @@
     <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
-      <c r="C280" s="15"/>
+      <c r="C280" s="14"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
@@ -12804,16 +12798,16 @@
       <c r="AA280" s="6"/>
     </row>
     <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="17" t="s">
+      <c r="A281" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="B281" s="17" t="s">
+      <c r="B281" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="C281" s="18" t="s">
+      <c r="C281" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="E281" s="17" t="s">
+      <c r="E281" s="16" t="s">
         <v>891</v>
       </c>
       <c r="F281" s="6"/>
@@ -12840,16 +12834,16 @@
       <c r="AA281" s="6"/>
     </row>
     <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="17" t="s">
+      <c r="A282" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="B282" s="17" t="s">
+      <c r="B282" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C282" s="18" t="s">
+      <c r="C282" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="E282" s="17"/>
+      <c r="E282" s="16"/>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
       <c r="H282" s="6"/>
@@ -12876,7 +12870,7 @@
     <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
-      <c r="C283" s="15"/>
+      <c r="C283" s="14"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
@@ -12908,10 +12902,10 @@
       <c r="B284" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C284" s="13" t="s">
+      <c r="C284" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="D284" s="8" t="s">
+      <c r="D284" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E284" s="6"/>
@@ -12945,7 +12939,7 @@
       <c r="B285" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C285" s="13" t="s">
+      <c r="C285" s="12" t="s">
         <v>511</v>
       </c>
       <c r="E285" s="6"/>
@@ -12975,7 +12969,7 @@
     <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
-      <c r="C286" s="15"/>
+      <c r="C286" s="14"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
@@ -13007,10 +13001,10 @@
       <c r="B287" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C287" s="13" t="s">
+      <c r="C287" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="D287" s="8" t="s">
+      <c r="D287" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E287" s="6"/>
@@ -13044,7 +13038,7 @@
       <c r="B288" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C288" s="13" t="s">
+      <c r="C288" s="12" t="s">
         <v>516</v>
       </c>
       <c r="E288" s="6"/>
@@ -13074,7 +13068,7 @@
     <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
-      <c r="C289" s="24"/>
+      <c r="C289" s="23"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
@@ -13106,10 +13100,10 @@
       <c r="B290" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="C290" s="28" t="s">
+      <c r="C290" s="27" t="s">
         <v>901</v>
       </c>
-      <c r="D290" s="8" t="s">
+      <c r="D290" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E290" s="6"/>
@@ -13143,7 +13137,7 @@
       <c r="B291" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="C291" s="28" t="s">
+      <c r="C291" s="27" t="s">
         <v>902</v>
       </c>
       <c r="E291" s="6"/>
@@ -13173,7 +13167,7 @@
     <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
-      <c r="C292" s="15"/>
+      <c r="C292" s="14"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
@@ -13205,10 +13199,10 @@
       <c r="B293" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C293" s="13" t="s">
+      <c r="C293" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="D293" s="8" t="s">
+      <c r="D293" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E293" s="6"/>
@@ -13242,7 +13236,7 @@
       <c r="B294" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C294" s="13" t="s">
+      <c r="C294" s="12" t="s">
         <v>521</v>
       </c>
       <c r="E294" s="6"/>
@@ -13276,7 +13270,7 @@
       <c r="B295" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C295" s="13" t="s">
+      <c r="C295" s="12" t="s">
         <v>523</v>
       </c>
       <c r="E295" s="6"/>
@@ -13306,7 +13300,7 @@
     <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
-      <c r="C296" s="15"/>
+      <c r="C296" s="14"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
@@ -13338,10 +13332,10 @@
       <c r="B297" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C297" s="13" t="s">
+      <c r="C297" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="D297" s="8" t="s">
+      <c r="D297" s="7" t="s">
         <v>799</v>
       </c>
       <c r="E297" s="6"/>
@@ -13375,10 +13369,10 @@
       <c r="B298" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C298" s="13" t="s">
+      <c r="C298" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="D298" s="8" t="s">
+      <c r="D298" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E298" s="6"/>
@@ -13412,7 +13406,7 @@
       <c r="B299" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C299" s="13" t="s">
+      <c r="C299" s="12" t="s">
         <v>530</v>
       </c>
       <c r="E299" s="6"/>
@@ -13446,7 +13440,7 @@
       <c r="B300" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C300" s="13" t="s">
+      <c r="C300" s="12" t="s">
         <v>532</v>
       </c>
       <c r="E300" s="6"/>
@@ -13480,7 +13474,7 @@
       <c r="B301" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C301" s="13" t="s">
+      <c r="C301" s="12" t="s">
         <v>534</v>
       </c>
       <c r="E301" s="6"/>
@@ -13514,7 +13508,7 @@
       <c r="B302" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C302" s="13" t="s">
+      <c r="C302" s="12" t="s">
         <v>536</v>
       </c>
       <c r="E302" s="6"/>
@@ -13544,7 +13538,7 @@
     <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
-      <c r="C303" s="15"/>
+      <c r="C303" s="14"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
@@ -13576,10 +13570,10 @@
       <c r="B304" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C304" s="13" t="s">
+      <c r="C304" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="D304" s="8" t="s">
+      <c r="D304" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E304" s="6"/>
@@ -13613,7 +13607,7 @@
       <c r="B305" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C305" s="13" t="s">
+      <c r="C305" s="12" t="s">
         <v>541</v>
       </c>
       <c r="E305" s="6"/>
@@ -13647,7 +13641,7 @@
       <c r="B306" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C306" s="13" t="s">
+      <c r="C306" s="12" t="s">
         <v>543</v>
       </c>
       <c r="E306" s="6"/>
@@ -13681,7 +13675,7 @@
       <c r="B307" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C307" s="13" t="s">
+      <c r="C307" s="12" t="s">
         <v>545</v>
       </c>
       <c r="E307" s="6"/>
@@ -13711,7 +13705,7 @@
     <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
-      <c r="C308" s="15"/>
+      <c r="C308" s="14"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
@@ -13743,10 +13737,10 @@
       <c r="B309" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C309" s="13" t="s">
+      <c r="C309" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="D309" s="8" t="s">
+      <c r="D309" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E309" s="6"/>
@@ -13780,7 +13774,7 @@
       <c r="B310" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C310" s="13" t="s">
+      <c r="C310" s="12" t="s">
         <v>550</v>
       </c>
       <c r="E310" s="6"/>
@@ -13810,7 +13804,7 @@
     <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
-      <c r="C311" s="15"/>
+      <c r="C311" s="14"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
@@ -13836,16 +13830,16 @@
       <c r="AA311" s="6"/>
     </row>
     <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="17" t="s">
+      <c r="A312" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="B312" s="17" t="s">
+      <c r="B312" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="C312" s="18" t="s">
+      <c r="C312" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="E312" s="17" t="s">
+      <c r="E312" s="16" t="s">
         <v>891</v>
       </c>
       <c r="F312" s="6"/>
@@ -13872,16 +13866,16 @@
       <c r="AA312" s="6"/>
     </row>
     <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="17" t="s">
+      <c r="A313" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="B313" s="17" t="s">
+      <c r="B313" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="C313" s="18" t="s">
+      <c r="C313" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="E313" s="17"/>
+      <c r="E313" s="16"/>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
       <c r="H313" s="6"/>
@@ -13908,7 +13902,7 @@
     <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
-      <c r="C314" s="15"/>
+      <c r="C314" s="14"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
@@ -13940,10 +13934,10 @@
       <c r="B315" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C315" s="13" t="s">
+      <c r="C315" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="D315" s="8" t="s">
+      <c r="D315" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E315" s="6"/>
@@ -13977,7 +13971,7 @@
       <c r="B316" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C316" s="13" t="s">
+      <c r="C316" s="12" t="s">
         <v>560</v>
       </c>
       <c r="E316" s="6"/>
@@ -14007,7 +14001,7 @@
     <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
-      <c r="C317" s="15"/>
+      <c r="C317" s="14"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -14039,10 +14033,10 @@
       <c r="B318" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C318" s="13" t="s">
+      <c r="C318" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D318" s="8" t="s">
+      <c r="D318" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E318" s="6"/>
@@ -14076,7 +14070,7 @@
       <c r="B319" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C319" s="13" t="s">
+      <c r="C319" s="12" t="s">
         <v>565</v>
       </c>
       <c r="E319" s="6"/>
@@ -14106,7 +14100,7 @@
     <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
-      <c r="C320" s="15"/>
+      <c r="C320" s="14"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
@@ -14138,10 +14132,10 @@
       <c r="B321" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C321" s="13" t="s">
+      <c r="C321" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="D321" s="8" t="s">
+      <c r="D321" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E321" s="6"/>
@@ -14175,7 +14169,7 @@
       <c r="B322" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C322" s="13" t="s">
+      <c r="C322" s="12" t="s">
         <v>570</v>
       </c>
       <c r="E322" s="6"/>
@@ -14205,7 +14199,7 @@
     <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
-      <c r="C323" s="15"/>
+      <c r="C323" s="14"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
@@ -14237,10 +14231,10 @@
       <c r="B324" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C324" s="13" t="s">
+      <c r="C324" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="D324" s="8" t="s">
+      <c r="D324" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E324" s="6"/>
@@ -14274,7 +14268,7 @@
       <c r="B325" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C325" s="13" t="s">
+      <c r="C325" s="12" t="s">
         <v>575</v>
       </c>
       <c r="E325" s="6"/>
@@ -14304,7 +14298,7 @@
     <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
-      <c r="C326" s="15"/>
+      <c r="C326" s="14"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
@@ -14336,10 +14330,10 @@
       <c r="B327" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="C327" s="13" t="s">
+      <c r="C327" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="D327" s="8" t="s">
+      <c r="D327" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E327" s="6"/>
@@ -14373,10 +14367,10 @@
       <c r="B328" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="C328" s="13" t="s">
+      <c r="C328" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="D328" s="8" t="s">
+      <c r="D328" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E328" s="6"/>
@@ -14410,7 +14404,7 @@
       <c r="B329" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C329" s="13" t="s">
+      <c r="C329" s="12" t="s">
         <v>582</v>
       </c>
       <c r="E329" s="6"/>
@@ -14440,7 +14434,7 @@
     <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
-      <c r="C330" s="15"/>
+      <c r="C330" s="14"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
       <c r="G330" s="6"/>
@@ -14472,10 +14466,10 @@
       <c r="B331" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C331" s="13" t="s">
+      <c r="C331" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="D331" s="8" t="s">
+      <c r="D331" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E331" s="6"/>
@@ -14509,7 +14503,7 @@
       <c r="B332" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C332" s="13" t="s">
+      <c r="C332" s="12" t="s">
         <v>587</v>
       </c>
       <c r="E332" s="6"/>
@@ -14539,7 +14533,7 @@
     <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
-      <c r="C333" s="15"/>
+      <c r="C333" s="14"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
@@ -14571,10 +14565,10 @@
       <c r="B334" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="C334" s="13" t="s">
+      <c r="C334" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="D334" s="8" t="s">
+      <c r="D334" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E334" s="6"/>
@@ -14608,10 +14602,10 @@
       <c r="B335" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C335" s="13" t="s">
+      <c r="C335" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="D335" s="8" t="s">
+      <c r="D335" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E335" s="6"/>
@@ -14641,7 +14635,7 @@
     <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
-      <c r="C336" s="13"/>
+      <c r="C336" s="12"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
@@ -14673,10 +14667,10 @@
       <c r="B337" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="C337" s="13" t="s">
+      <c r="C337" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="D337" s="8" t="s">
+      <c r="D337" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E337" s="6"/>
@@ -14710,7 +14704,7 @@
       <c r="B338" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C338" s="13" t="s">
+      <c r="C338" s="12" t="s">
         <v>597</v>
       </c>
       <c r="E338" s="6"/>
@@ -14744,7 +14738,7 @@
       <c r="B339" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C339" s="13" t="s">
+      <c r="C339" s="12" t="s">
         <v>599</v>
       </c>
       <c r="E339" s="6"/>
@@ -14774,7 +14768,7 @@
     <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
-      <c r="C340" s="15"/>
+      <c r="C340" s="14"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
@@ -14806,10 +14800,10 @@
       <c r="B341" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="C341" s="13" t="s">
+      <c r="C341" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="D341" s="8" t="s">
+      <c r="D341" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E341" s="6"/>
@@ -14843,7 +14837,7 @@
       <c r="B342" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="C342" s="13" t="s">
+      <c r="C342" s="12" t="s">
         <v>604</v>
       </c>
       <c r="E342" s="6"/>
@@ -14873,7 +14867,7 @@
     <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
-      <c r="C343" s="15"/>
+      <c r="C343" s="14"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
@@ -14899,19 +14893,19 @@
       <c r="AA343" s="6"/>
     </row>
     <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="22" t="s">
+      <c r="A344" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="B344" s="22" t="s">
+      <c r="B344" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="C344" s="23" t="s">
+      <c r="C344" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="D344" s="22" t="s">
+      <c r="D344" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="E344" s="17"/>
+      <c r="E344" s="16"/>
       <c r="F344" s="6"/>
       <c r="G344" s="6"/>
       <c r="H344" s="6"/>
@@ -14936,17 +14930,17 @@
       <c r="AA344" s="6"/>
     </row>
     <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="22" t="s">
+      <c r="A345" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="B345" s="22" t="s">
+      <c r="B345" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="C345" s="23" t="s">
+      <c r="C345" s="22" t="s">
         <v>609</v>
       </c>
-      <c r="D345" s="22"/>
-      <c r="E345" s="17"/>
+      <c r="D345" s="21"/>
+      <c r="E345" s="16"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
       <c r="H345" s="6"/>
@@ -14973,7 +14967,7 @@
     <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
-      <c r="C346" s="15"/>
+      <c r="C346" s="14"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
@@ -15005,10 +14999,10 @@
       <c r="B347" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C347" s="13" t="s">
+      <c r="C347" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="D347" s="8" t="s">
+      <c r="D347" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E347" s="6"/>
@@ -15042,7 +15036,7 @@
       <c r="B348" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C348" s="13" t="s">
+      <c r="C348" s="12" t="s">
         <v>614</v>
       </c>
       <c r="E348" s="6"/>
@@ -15072,7 +15066,7 @@
     <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
-      <c r="C349" s="15"/>
+      <c r="C349" s="14"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
@@ -15097,35 +15091,35 @@
       <c r="Z349" s="6"/>
       <c r="AA349" s="6"/>
     </row>
-    <row r="350" spans="1:27" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="17" t="s">
+    <row r="350" spans="1:27" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B350" s="17" t="s">
+      <c r="B350" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="C350" s="18" t="s">
+      <c r="C350" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="E350" s="17" t="s">
+      <c r="E350" s="16" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="351" spans="1:27" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="17" t="s">
+    <row r="351" spans="1:27" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B351" s="17" t="s">
+      <c r="B351" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="C351" s="18" t="s">
+      <c r="C351" s="17" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
-      <c r="C352" s="15"/>
+      <c r="C352" s="14"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
@@ -15157,10 +15151,10 @@
       <c r="B353" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C353" s="13" t="s">
+      <c r="C353" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="D353" s="8" t="s">
+      <c r="D353" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E353" s="6"/>
@@ -15194,7 +15188,7 @@
       <c r="B354" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C354" s="13" t="s">
+      <c r="C354" s="12" t="s">
         <v>624</v>
       </c>
       <c r="E354" s="6"/>
@@ -15228,7 +15222,7 @@
       <c r="B355" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C355" s="13" t="s">
+      <c r="C355" s="12" t="s">
         <v>626</v>
       </c>
       <c r="E355" s="6"/>
@@ -15258,7 +15252,7 @@
     <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
-      <c r="C356" s="15"/>
+      <c r="C356" s="14"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
@@ -15290,10 +15284,10 @@
       <c r="B357" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C357" s="13" t="s">
+      <c r="C357" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="D357" s="8" t="s">
+      <c r="D357" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E357" s="6"/>
@@ -15327,7 +15321,7 @@
       <c r="B358" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C358" s="13" t="s">
+      <c r="C358" s="12" t="s">
         <v>631</v>
       </c>
       <c r="E358" s="6"/>
@@ -15357,7 +15351,7 @@
     <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
-      <c r="C359" s="15"/>
+      <c r="C359" s="14"/>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
@@ -15389,10 +15383,10 @@
       <c r="B360" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C360" s="13" t="s">
+      <c r="C360" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="D360" s="8" t="s">
+      <c r="D360" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E360" s="6"/>
@@ -15426,7 +15420,7 @@
       <c r="B361" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="C361" s="13" t="s">
+      <c r="C361" s="12" t="s">
         <v>636</v>
       </c>
       <c r="E361" s="6"/>
@@ -15456,7 +15450,7 @@
     <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
-      <c r="C362" s="15"/>
+      <c r="C362" s="14"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
       <c r="G362" s="6"/>
@@ -15488,10 +15482,10 @@
       <c r="B363" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C363" s="13" t="s">
+      <c r="C363" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="D363" s="8" t="s">
+      <c r="D363" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E363" s="6"/>
@@ -15525,7 +15519,7 @@
       <c r="B364" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C364" s="13" t="s">
+      <c r="C364" s="12" t="s">
         <v>641</v>
       </c>
       <c r="E364" s="6"/>
@@ -15555,7 +15549,7 @@
     <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
-      <c r="C365" s="24"/>
+      <c r="C365" s="23"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
@@ -15580,35 +15574,35 @@
       <c r="Z365" s="6"/>
       <c r="AA365" s="6"/>
     </row>
-    <row r="366" spans="1:27" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="17" t="s">
+    <row r="366" spans="1:27" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="B366" s="17" t="s">
+      <c r="B366" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="C366" s="18" t="s">
+      <c r="C366" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="E366" s="17" t="s">
+      <c r="E366" s="16" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="367" spans="1:27" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="17" t="s">
+    <row r="367" spans="1:27" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="B367" s="17" t="s">
+      <c r="B367" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="C367" s="18" t="s">
+      <c r="C367" s="17" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
-      <c r="C368" s="24"/>
+      <c r="C368" s="23"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
@@ -15640,10 +15634,10 @@
       <c r="B369" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C369" s="13" t="s">
+      <c r="C369" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="D369" s="8" t="s">
+      <c r="D369" s="7" t="s">
         <v>778</v>
       </c>
       <c r="E369" s="6"/>
@@ -15677,7 +15671,7 @@
       <c r="B370" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C370" s="13" t="s">
+      <c r="C370" s="12" t="s">
         <v>649</v>
       </c>
       <c r="E370" s="6"/>
@@ -15707,7 +15701,7 @@
     <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
-      <c r="C371" s="24"/>
+      <c r="C371" s="23"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
@@ -15739,10 +15733,10 @@
       <c r="B372" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="C372" s="13" t="s">
+      <c r="C372" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="D372" s="8" t="s">
+      <c r="D372" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E372" s="6"/>
@@ -15776,7 +15770,7 @@
       <c r="B373" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="C373" s="13" t="s">
+      <c r="C373" s="12" t="s">
         <v>654</v>
       </c>
       <c r="E373" s="6"/>
@@ -15810,7 +15804,7 @@
       <c r="B374" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C374" s="13" t="s">
+      <c r="C374" s="12" t="s">
         <v>656</v>
       </c>
       <c r="E374" s="6"/>
@@ -15840,7 +15834,7 @@
     <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
-      <c r="C375" s="24"/>
+      <c r="C375" s="23"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
@@ -15872,10 +15866,10 @@
       <c r="B376" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="C376" s="13" t="s">
+      <c r="C376" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="D376" s="8" t="s">
+      <c r="D376" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E376" s="6"/>
@@ -15909,10 +15903,10 @@
       <c r="B377" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="C377" s="13" t="s">
+      <c r="C377" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="D377" s="8" t="s">
+      <c r="D377" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E377" s="6"/>
@@ -15946,7 +15940,7 @@
       <c r="B378" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="C378" s="13" t="s">
+      <c r="C378" s="12" t="s">
         <v>663</v>
       </c>
       <c r="E378" s="6"/>
@@ -15980,7 +15974,7 @@
       <c r="B379" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C379" s="13" t="s">
+      <c r="C379" s="12" t="s">
         <v>665</v>
       </c>
       <c r="E379" s="6"/>
@@ -16014,7 +16008,7 @@
       <c r="B380" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="C380" s="13" t="s">
+      <c r="C380" s="12" t="s">
         <v>667</v>
       </c>
       <c r="E380" s="6"/>
@@ -16044,7 +16038,7 @@
     <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
-      <c r="C381" s="24"/>
+      <c r="C381" s="23"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
@@ -16076,10 +16070,10 @@
       <c r="B382" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="C382" s="13" t="s">
+      <c r="C382" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="D382" s="8" t="s">
+      <c r="D382" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E382" s="6"/>
@@ -16113,7 +16107,7 @@
       <c r="B383" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="C383" s="13" t="s">
+      <c r="C383" s="12" t="s">
         <v>672</v>
       </c>
       <c r="E383" s="6"/>
@@ -16143,7 +16137,7 @@
     <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
-      <c r="C384" s="24"/>
+      <c r="C384" s="23"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
       <c r="G384" s="6"/>
@@ -16175,10 +16169,10 @@
       <c r="B385" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C385" s="13" t="s">
+      <c r="C385" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="D385" s="8" t="s">
+      <c r="D385" s="7" t="s">
         <v>777</v>
       </c>
       <c r="E385" s="6"/>
@@ -16212,7 +16206,7 @@
       <c r="B386" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="C386" s="13" t="s">
+      <c r="C386" s="12" t="s">
         <v>677</v>
       </c>
       <c r="E386" s="6"/>
@@ -16245,7 +16239,7 @@
       <c r="B387" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="C387" s="13" t="s">
+      <c r="C387" s="12" t="s">
         <v>679</v>
       </c>
       <c r="E387" s="6"/>
@@ -16275,7 +16269,7 @@
     <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
-      <c r="C388" s="24"/>
+      <c r="C388" s="23"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" s="6"/>
@@ -16307,10 +16301,10 @@
       <c r="B389" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="C389" s="13" t="s">
+      <c r="C389" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="D389" s="8" t="s">
+      <c r="D389" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E389" s="6"/>
@@ -16344,7 +16338,7 @@
       <c r="B390" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="C390" s="13" t="s">
+      <c r="C390" s="12" t="s">
         <v>684</v>
       </c>
       <c r="E390" s="6"/>
@@ -16374,7 +16368,7 @@
     <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
-      <c r="C391" s="24"/>
+      <c r="C391" s="23"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
@@ -16406,10 +16400,10 @@
       <c r="B392" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="C392" s="13" t="s">
+      <c r="C392" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="D392" s="8" t="s">
+      <c r="D392" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E392" s="6"/>
@@ -16443,7 +16437,7 @@
       <c r="B393" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="C393" s="13" t="s">
+      <c r="C393" s="12" t="s">
         <v>689</v>
       </c>
       <c r="E393" s="6"/>
@@ -16473,7 +16467,7 @@
     <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
-      <c r="C394" s="24"/>
+      <c r="C394" s="23"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
@@ -16505,10 +16499,10 @@
       <c r="B395" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="C395" s="13" t="s">
+      <c r="C395" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="D395" s="8" t="s">
+      <c r="D395" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E395" s="6"/>
@@ -16542,7 +16536,7 @@
       <c r="B396" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="C396" s="13" t="s">
+      <c r="C396" s="12" t="s">
         <v>694</v>
       </c>
       <c r="E396" s="6"/>
@@ -16576,7 +16570,7 @@
       <c r="B397" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="C397" s="13" t="s">
+      <c r="C397" s="12" t="s">
         <v>696</v>
       </c>
       <c r="E397" s="6"/>
@@ -16610,7 +16604,7 @@
       <c r="B398" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C398" s="13" t="s">
+      <c r="C398" s="12" t="s">
         <v>698</v>
       </c>
       <c r="E398" s="6"/>
@@ -16640,7 +16634,7 @@
     <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
-      <c r="C399" s="24"/>
+      <c r="C399" s="23"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
       <c r="G399" s="6"/>
@@ -16669,13 +16663,13 @@
       <c r="A400" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="B400" s="25" t="s">
+      <c r="B400" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="C400" s="13" t="s">
+      <c r="C400" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="D400" s="8" t="s">
+      <c r="D400" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E400" s="6"/>
@@ -16706,10 +16700,10 @@
       <c r="A401" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="B401" s="25" t="s">
+      <c r="B401" s="24" t="s">
         <v>702</v>
       </c>
-      <c r="C401" s="13" t="s">
+      <c r="C401" s="12" t="s">
         <v>703</v>
       </c>
       <c r="E401" s="6"/>
@@ -16739,7 +16733,7 @@
     <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
-      <c r="C402" s="24"/>
+      <c r="C402" s="23"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
       <c r="G402" s="6"/>
@@ -16768,13 +16762,13 @@
       <c r="A403" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="B403" s="25" t="s">
+      <c r="B403" s="24" t="s">
         <v>705</v>
       </c>
-      <c r="C403" s="13" t="s">
+      <c r="C403" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="D403" s="8" t="s">
+      <c r="D403" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E403" s="6"/>
@@ -16805,10 +16799,10 @@
       <c r="A404" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="B404" s="25" t="s">
+      <c r="B404" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="C404" s="13" t="s">
+      <c r="C404" s="12" t="s">
         <v>708</v>
       </c>
       <c r="E404" s="6"/>
@@ -16838,7 +16832,7 @@
     <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
-      <c r="C405" s="24"/>
+      <c r="C405" s="23"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
       <c r="G405" s="6"/>
@@ -16867,13 +16861,13 @@
       <c r="A406" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="B406" s="25" t="s">
+      <c r="B406" s="24" t="s">
         <v>710</v>
       </c>
-      <c r="C406" s="24" t="s">
+      <c r="C406" s="23" t="s">
         <v>711</v>
       </c>
-      <c r="D406" s="8" t="s">
+      <c r="D406" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E406" s="6"/>
@@ -16904,10 +16898,10 @@
       <c r="A407" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="B407" s="25" t="s">
+      <c r="B407" s="24" t="s">
         <v>712</v>
       </c>
-      <c r="C407" s="24" t="s">
+      <c r="C407" s="23" t="s">
         <v>713</v>
       </c>
       <c r="E407" s="6"/>
@@ -16937,7 +16931,7 @@
     <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
-      <c r="C408" s="24"/>
+      <c r="C408" s="23"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
       <c r="G408" s="6"/>
@@ -16969,24 +16963,24 @@
       <c r="B409" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C409" s="16" t="s">
+      <c r="C409" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="D409" s="8" t="s">
+      <c r="D409" s="7" t="s">
         <v>780</v>
       </c>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
       <c r="G409" s="6"/>
-      <c r="H409" s="14"/>
-      <c r="I409" s="14"/>
-      <c r="J409" s="14"/>
-      <c r="K409" s="14"/>
-      <c r="L409" s="14"/>
-      <c r="M409" s="14" t="s">
+      <c r="H409" s="13"/>
+      <c r="I409" s="13"/>
+      <c r="J409" s="13"/>
+      <c r="K409" s="13"/>
+      <c r="L409" s="13"/>
+      <c r="M409" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N409" s="14" t="s">
+      <c r="N409" s="13" t="s">
         <v>9</v>
       </c>
       <c r="O409" s="6"/>
@@ -17010,7 +17004,7 @@
       <c r="B410" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C410" s="16" t="s">
+      <c r="C410" s="15" t="s">
         <v>718</v>
       </c>
       <c r="E410" s="6"/>
@@ -17044,7 +17038,7 @@
     <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
-      <c r="C411" s="24"/>
+      <c r="C411" s="23"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
       <c r="G411" s="6"/>
@@ -17074,16 +17068,16 @@
       <c r="AA411" s="6"/>
     </row>
     <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="26" t="s">
+      <c r="A412" s="25" t="s">
         <v>719</v>
       </c>
-      <c r="B412" s="27" t="s">
+      <c r="B412" s="26" t="s">
         <v>720</v>
       </c>
-      <c r="C412" s="16" t="s">
+      <c r="C412" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="D412" s="8" t="s">
+      <c r="D412" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E412" s="6"/>
@@ -17117,13 +17111,13 @@
       <c r="AA412" s="6"/>
     </row>
     <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="15" t="s">
+      <c r="A413" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="B413" s="27" t="s">
+      <c r="B413" s="26" t="s">
         <v>722</v>
       </c>
-      <c r="C413" s="16" t="s">
+      <c r="C413" s="15" t="s">
         <v>723</v>
       </c>
       <c r="F413" s="6"/>
@@ -17152,7 +17146,7 @@
     <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
-      <c r="C414" s="24"/>
+      <c r="C414" s="23"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
       <c r="G414" s="6"/>
@@ -17181,16 +17175,16 @@
       <c r="A415" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="B415" s="27" t="s">
+      <c r="B415" s="26" t="s">
         <v>725</v>
       </c>
-      <c r="C415" s="16" t="s">
+      <c r="C415" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="D415" s="8" t="s">
+      <c r="D415" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="E415" s="15"/>
+      <c r="E415" s="14"/>
       <c r="F415" s="6"/>
       <c r="G415" s="6"/>
       <c r="H415" s="6"/>
@@ -17218,13 +17212,13 @@
       <c r="A416" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="B416" s="27" t="s">
+      <c r="B416" s="26" t="s">
         <v>727</v>
       </c>
-      <c r="C416" s="16" t="s">
+      <c r="C416" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="E416" s="26"/>
+      <c r="E416" s="25"/>
       <c r="F416" s="6"/>
       <c r="G416" s="6"/>
       <c r="H416" s="6"/>
@@ -17251,7 +17245,7 @@
     <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
-      <c r="C417" s="24"/>
+      <c r="C417" s="23"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
       <c r="G417" s="6"/>
@@ -17280,13 +17274,13 @@
       <c r="A418" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B418" s="27" t="s">
+      <c r="B418" s="26" t="s">
         <v>730</v>
       </c>
-      <c r="C418" s="16" t="s">
+      <c r="C418" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="D418" s="8" t="s">
+      <c r="D418" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E418" s="6"/>
@@ -17317,10 +17311,10 @@
       <c r="A419" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B419" s="27" t="s">
+      <c r="B419" s="26" t="s">
         <v>732</v>
       </c>
-      <c r="C419" s="16" t="s">
+      <c r="C419" s="15" t="s">
         <v>733</v>
       </c>
       <c r="E419" s="6"/>
@@ -17350,7 +17344,7 @@
     <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
-      <c r="C420" s="24"/>
+      <c r="C420" s="23"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
       <c r="G420" s="6"/>
@@ -17379,16 +17373,16 @@
       <c r="A421" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="B421" s="27" t="s">
+      <c r="B421" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="C421" s="16" t="s">
+      <c r="C421" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="D421" s="8" t="s">
+      <c r="D421" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="E421" s="15"/>
+      <c r="E421" s="14"/>
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
       <c r="H421" s="6"/>
@@ -17416,13 +17410,13 @@
       <c r="A422" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="B422" s="27" t="s">
+      <c r="B422" s="26" t="s">
         <v>737</v>
       </c>
-      <c r="C422" s="16" t="s">
+      <c r="C422" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="E422" s="15"/>
+      <c r="E422" s="14"/>
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
       <c r="H422" s="6"/>
@@ -17449,7 +17443,7 @@
     <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
-      <c r="C423" s="24"/>
+      <c r="C423" s="23"/>
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
       <c r="G423" s="6"/>
@@ -17481,10 +17475,10 @@
       <c r="B424" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C424" s="16" t="s">
+      <c r="C424" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="D424" s="8" t="s">
+      <c r="D424" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E424" s="6"/>
@@ -17518,7 +17512,7 @@
       <c r="B425" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="C425" s="16" t="s">
+      <c r="C425" s="15" t="s">
         <v>743</v>
       </c>
       <c r="E425" s="6"/>
@@ -17548,7 +17542,7 @@
     <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
-      <c r="C426" s="24"/>
+      <c r="C426" s="23"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
       <c r="G426" s="6"/>
@@ -17580,10 +17574,10 @@
       <c r="B427" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="C427" s="16" t="s">
+      <c r="C427" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="D427" s="8" t="s">
+      <c r="D427" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E427" s="6"/>
@@ -17617,7 +17611,7 @@
       <c r="B428" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="C428" s="16" t="s">
+      <c r="C428" s="15" t="s">
         <v>748</v>
       </c>
       <c r="E428" s="6"/>
@@ -17647,7 +17641,7 @@
     <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
-      <c r="C429" s="24"/>
+      <c r="C429" s="23"/>
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
       <c r="G429" s="6"/>
@@ -17679,10 +17673,10 @@
       <c r="B430" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C430" s="16" t="s">
+      <c r="C430" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="D430" s="8" t="s">
+      <c r="D430" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E430" s="6"/>
@@ -17716,7 +17710,7 @@
       <c r="B431" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C431" s="16" t="s">
+      <c r="C431" s="15" t="s">
         <v>753</v>
       </c>
       <c r="E431" s="6"/>
@@ -17746,7 +17740,7 @@
     <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
-      <c r="C432" s="24"/>
+      <c r="C432" s="23"/>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
       <c r="G432" s="6"/>
@@ -17778,10 +17772,10 @@
       <c r="B433" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="C433" s="16" t="s">
+      <c r="C433" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="D433" s="8" t="s">
+      <c r="D433" s="7" t="s">
         <v>799</v>
       </c>
       <c r="E433" s="6"/>
@@ -17815,7 +17809,7 @@
       <c r="B434" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="C434" s="16" t="s">
+      <c r="C434" s="15" t="s">
         <v>758</v>
       </c>
       <c r="E434" s="6"/>
@@ -17845,7 +17839,7 @@
     <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
-      <c r="C435" s="24"/>
+      <c r="C435" s="23"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
       <c r="G435" s="6"/>
@@ -17877,10 +17871,10 @@
       <c r="B436" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="C436" s="16" t="s">
+      <c r="C436" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="D436" s="8" t="s">
+      <c r="D436" s="7" t="s">
         <v>799</v>
       </c>
       <c r="E436" s="6"/>
@@ -17914,7 +17908,7 @@
       <c r="B437" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="C437" s="16" t="s">
+      <c r="C437" s="15" t="s">
         <v>763</v>
       </c>
       <c r="E437" s="6"/>
@@ -17944,7 +17938,7 @@
     <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
-      <c r="C438" s="24"/>
+      <c r="C438" s="23"/>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
       <c r="G438" s="6"/>
@@ -17976,10 +17970,10 @@
       <c r="B439" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="C439" s="16" t="s">
+      <c r="C439" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="D439" s="8" t="s">
+      <c r="D439" s="7" t="s">
         <v>799</v>
       </c>
       <c r="E439" s="6"/>
@@ -18013,7 +18007,7 @@
       <c r="B440" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="C440" s="16" t="s">
+      <c r="C440" s="15" t="s">
         <v>768</v>
       </c>
       <c r="E440" s="6"/>
@@ -18043,7 +18037,7 @@
     <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
-      <c r="C441" s="24"/>
+      <c r="C441" s="23"/>
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
       <c r="G441" s="6"/>
@@ -18075,10 +18069,10 @@
       <c r="B442" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="C442" s="16" t="s">
+      <c r="C442" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="D442" s="8" t="s">
+      <c r="D442" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E442" s="6"/>
@@ -18112,7 +18106,7 @@
       <c r="B443" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="C443" s="16" t="s">
+      <c r="C443" s="15" t="s">
         <v>773</v>
       </c>
       <c r="E443" s="6"/>
@@ -18142,7 +18136,7 @@
     <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
-      <c r="C444" s="24"/>
+      <c r="C444" s="23"/>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
       <c r="G444" s="6"/>
@@ -18168,19 +18162,19 @@
       <c r="AA444" s="6"/>
     </row>
     <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="33" t="s">
+      <c r="A445" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="B445" s="33" t="s">
+      <c r="B445" s="32" t="s">
         <v>896</v>
       </c>
-      <c r="C445" s="9" t="s">
+      <c r="C445" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="D445" s="8" t="s">
+      <c r="D445" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="E445" s="33"/>
+      <c r="E445" s="32"/>
       <c r="F445" s="6"/>
       <c r="G445" s="6"/>
       <c r="H445" s="6"/>
@@ -18205,16 +18199,16 @@
       <c r="AA445" s="6"/>
     </row>
     <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="33" t="s">
+      <c r="A446" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="B446" s="33" t="s">
+      <c r="B446" s="32" t="s">
         <v>898</v>
       </c>
-      <c r="C446" s="9" t="s">
+      <c r="C446" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="E446" s="33"/>
+      <c r="E446" s="32"/>
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
       <c r="H446" s="6"/>
@@ -18241,7 +18235,7 @@
     <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
-      <c r="C447" s="24"/>
+      <c r="C447" s="23"/>
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
       <c r="G447" s="6"/>
@@ -18267,16 +18261,16 @@
       <c r="AA447" s="6"/>
     </row>
     <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="33" t="s">
+      <c r="A448" s="32" t="s">
         <v>910</v>
       </c>
-      <c r="B448" s="33" t="s">
+      <c r="B448" s="32" t="s">
         <v>905</v>
       </c>
-      <c r="C448" s="30" t="s">
+      <c r="C448" s="29" t="s">
         <v>906</v>
       </c>
-      <c r="D448" s="8" t="s">
+      <c r="D448" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E448" s="6"/>
@@ -18304,13 +18298,13 @@
       <c r="AA448" s="6"/>
     </row>
     <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="33" t="s">
+      <c r="A449" s="32" t="s">
         <v>910</v>
       </c>
-      <c r="B449" s="33" t="s">
+      <c r="B449" s="32" t="s">
         <v>907</v>
       </c>
-      <c r="C449" s="30" t="s">
+      <c r="C449" s="29" t="s">
         <v>908</v>
       </c>
       <c r="E449" s="6"/>
@@ -18340,7 +18334,7 @@
     <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
-      <c r="C450" s="24"/>
+      <c r="C450" s="23"/>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
       <c r="G450" s="6"/>
@@ -18366,16 +18360,16 @@
       <c r="AA450" s="6"/>
     </row>
     <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="33" t="s">
+      <c r="A451" s="32" t="s">
         <v>917</v>
       </c>
-      <c r="B451" s="33" t="s">
+      <c r="B451" s="32" t="s">
         <v>911</v>
       </c>
-      <c r="C451" s="30" t="s">
+      <c r="C451" s="29" t="s">
         <v>912</v>
       </c>
-      <c r="D451" s="8" t="s">
+      <c r="D451" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E451" s="6"/>
@@ -18403,13 +18397,13 @@
       <c r="AA451" s="6"/>
     </row>
     <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="33" t="s">
+      <c r="A452" s="32" t="s">
         <v>917</v>
       </c>
-      <c r="B452" s="33" t="s">
+      <c r="B452" s="32" t="s">
         <v>913</v>
       </c>
-      <c r="C452" s="30" t="s">
+      <c r="C452" s="29" t="s">
         <v>914</v>
       </c>
       <c r="E452" s="6"/>
@@ -18437,13 +18431,13 @@
       <c r="AA452" s="6"/>
     </row>
     <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="33" t="s">
+      <c r="A453" s="32" t="s">
         <v>917</v>
       </c>
-      <c r="B453" s="33" t="s">
+      <c r="B453" s="32" t="s">
         <v>915</v>
       </c>
-      <c r="C453" s="30" t="s">
+      <c r="C453" s="29" t="s">
         <v>916</v>
       </c>
       <c r="E453" s="6"/>
@@ -18473,7 +18467,7 @@
     <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
-      <c r="C454" s="24"/>
+      <c r="C454" s="23"/>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
       <c r="G454" s="6"/>
@@ -18505,10 +18499,10 @@
       <c r="B455" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="C455" s="31" t="s">
+      <c r="C455" s="30" t="s">
         <v>920</v>
       </c>
-      <c r="D455" s="8" t="s">
+      <c r="D455" s="7" t="s">
         <v>795</v>
       </c>
       <c r="E455" s="6"/>
@@ -18542,7 +18536,7 @@
       <c r="B456" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="C456" s="31" t="s">
+      <c r="C456" s="30" t="s">
         <v>922</v>
       </c>
       <c r="E456" s="6"/>
@@ -18576,7 +18570,7 @@
       <c r="B457" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="C457" s="31" t="s">
+      <c r="C457" s="30" t="s">
         <v>924</v>
       </c>
       <c r="E457" s="6"/>
@@ -18606,7 +18600,7 @@
     <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
-      <c r="C458" s="24"/>
+      <c r="C458" s="23"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
       <c r="G458" s="6"/>
@@ -18632,14 +18626,14 @@
       <c r="AA458" s="6"/>
     </row>
     <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="7" t="s">
+      <c r="A459" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B459" t="s">
         <v>927</v>
       </c>
-      <c r="B459" t="s">
+      <c r="C459" s="30" t="s">
         <v>928</v>
-      </c>
-      <c r="C459" s="31" t="s">
-        <v>929</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>795</v>
@@ -18669,14 +18663,14 @@
       <c r="AA459" s="6"/>
     </row>
     <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="7" t="s">
-        <v>927</v>
+      <c r="A460" s="4" t="s">
+        <v>931</v>
       </c>
       <c r="B460" t="s">
+        <v>929</v>
+      </c>
+      <c r="C460" s="30" t="s">
         <v>930</v>
-      </c>
-      <c r="C460" s="31" t="s">
-        <v>931</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="6"/>
@@ -18706,7 +18700,7 @@
     <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
-      <c r="C461" s="24"/>
+      <c r="C461" s="23"/>
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
       <c r="G461" s="6"/>
@@ -18734,7 +18728,7 @@
     <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
-      <c r="C462" s="24"/>
+      <c r="C462" s="23"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
       <c r="G462" s="6"/>
@@ -18762,7 +18756,7 @@
     <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
-      <c r="C463" s="24"/>
+      <c r="C463" s="23"/>
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
       <c r="G463" s="6"/>
@@ -18790,7 +18784,7 @@
     <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
-      <c r="C464" s="24"/>
+      <c r="C464" s="23"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
       <c r="G464" s="6"/>
@@ -18818,7 +18812,7 @@
     <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
-      <c r="C465" s="24"/>
+      <c r="C465" s="23"/>
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
       <c r="G465" s="6"/>
@@ -18846,7 +18840,7 @@
     <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
-      <c r="C466" s="24"/>
+      <c r="C466" s="23"/>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
       <c r="G466" s="6"/>
@@ -18874,7 +18868,7 @@
     <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
-      <c r="C467" s="24"/>
+      <c r="C467" s="23"/>
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
@@ -18902,7 +18896,7 @@
     <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
-      <c r="C468" s="24"/>
+      <c r="C468" s="23"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
@@ -19290,10 +19284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DF6EAC-FCEB-9E47-B3F7-8B2A10C24536}">
-  <dimension ref="A1:G473"/>
+  <dimension ref="A1:G475"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C275" sqref="C275"/>
+    <sheetView tabSelected="1" topLeftCell="A439" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19306,13 +19300,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>774</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>775</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -19320,7 +19314,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -19334,7 +19328,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -19348,7 +19342,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -19384,7 +19378,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -19398,7 +19392,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -19407,12 +19401,12 @@
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>780</v>
+      <c r="D12" s="7" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -19893,14 +19887,14 @@
         <v>795</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="29" t="s">
+    <row r="60" spans="1:4" s="28" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="37"/>
     </row>
     <row r="61" spans="1:4" ht="14" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
@@ -19925,7 +19919,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="33" t="s">
         <v>96</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -19939,7 +19933,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A66" s="35"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="1" t="s">
         <v>97</v>
       </c>
@@ -19951,7 +19945,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A67" s="35"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="1" t="s">
         <v>97</v>
       </c>
@@ -19963,7 +19957,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A68" s="35"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="1" t="s">
         <v>99</v>
       </c>
@@ -19997,7 +19991,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -20011,10 +20005,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="35"/>
+      <c r="A73" s="33"/>
     </row>
     <row r="74" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="33" t="s">
         <v>110</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -20028,10 +20022,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="35"/>
+      <c r="A75" s="33"/>
     </row>
     <row r="76" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="33" t="s">
         <v>115</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -20045,7 +20039,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A77" s="35"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="1" t="s">
         <v>116</v>
       </c>
@@ -20057,7 +20051,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A78" s="35"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="1" t="s">
         <v>118</v>
       </c>
@@ -20069,7 +20063,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="33" t="s">
         <v>122</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -20083,10 +20077,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="35"/>
+      <c r="A81" s="33"/>
     </row>
     <row r="82" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="33" t="s">
         <v>132</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -20100,7 +20094,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A83" s="35"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="1" t="s">
         <v>133</v>
       </c>
@@ -20112,7 +20106,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A84" s="35"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="1" t="s">
         <v>133</v>
       </c>
@@ -20124,7 +20118,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A85" s="35"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="1" t="s">
         <v>133</v>
       </c>
@@ -20136,7 +20130,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A86" s="35"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="1" t="s">
         <v>135</v>
       </c>
@@ -20203,7 +20197,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="33" t="s">
         <v>143</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -20217,10 +20211,10 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="35"/>
+      <c r="A94" s="33"/>
     </row>
     <row r="95" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -20234,7 +20228,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A96" s="35"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="1" t="s">
         <v>149</v>
       </c>
@@ -20246,7 +20240,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A97" s="35"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="1" t="s">
         <v>151</v>
       </c>
@@ -20258,7 +20252,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A99" s="35" t="s">
+      <c r="A99" s="33" t="s">
         <v>155</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -20272,10 +20266,10 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="35"/>
+      <c r="A100" s="33"/>
     </row>
     <row r="101" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A101" s="35" t="s">
+      <c r="A101" s="33" t="s">
         <v>160</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -20289,10 +20283,10 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="35"/>
+      <c r="A102" s="33"/>
     </row>
     <row r="103" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="33" t="s">
         <v>165</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -20306,7 +20300,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A104" s="35"/>
+      <c r="A104" s="33"/>
       <c r="B104" s="1" t="s">
         <v>805</v>
       </c>
@@ -20318,7 +20312,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A105" s="35"/>
+      <c r="A105" s="33"/>
       <c r="B105" s="1" t="s">
         <v>806</v>
       </c>
@@ -20330,7 +20324,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A106" s="35"/>
+      <c r="A106" s="33"/>
       <c r="B106" s="1" t="s">
         <v>807</v>
       </c>
@@ -20342,7 +20336,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A107" s="35"/>
+      <c r="A107" s="33"/>
       <c r="B107" s="1" t="s">
         <v>808</v>
       </c>
@@ -20354,7 +20348,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A108" s="35"/>
+      <c r="A108" s="33"/>
       <c r="B108" s="1" t="s">
         <v>168</v>
       </c>
@@ -20465,7 +20459,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A119" s="35" t="s">
+      <c r="A119" s="33" t="s">
         <v>178</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -20479,7 +20473,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A120" s="35"/>
+      <c r="A120" s="33"/>
       <c r="B120" s="1" t="s">
         <v>811</v>
       </c>
@@ -20491,7 +20485,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A121" s="35"/>
+      <c r="A121" s="33"/>
       <c r="B121" s="1" t="s">
         <v>812</v>
       </c>
@@ -20503,7 +20497,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A122" s="35"/>
+      <c r="A122" s="33"/>
       <c r="B122" s="1" t="s">
         <v>813</v>
       </c>
@@ -20515,7 +20509,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A123" s="35"/>
+      <c r="A123" s="33"/>
       <c r="B123" s="1" t="s">
         <v>814</v>
       </c>
@@ -20527,7 +20521,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A124" s="35"/>
+      <c r="A124" s="33"/>
       <c r="B124" s="1" t="s">
         <v>181</v>
       </c>
@@ -20638,7 +20632,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A135" s="35" t="s">
+      <c r="A135" s="33" t="s">
         <v>191</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -20652,10 +20646,10 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="35"/>
+      <c r="A136" s="33"/>
     </row>
     <row r="137" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A137" s="35" t="s">
+      <c r="A137" s="33" t="s">
         <v>196</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -20669,10 +20663,10 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="35"/>
+      <c r="A138" s="33"/>
     </row>
     <row r="139" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A139" s="35" t="s">
+      <c r="A139" s="33" t="s">
         <v>201</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -20686,7 +20680,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A141" s="35" t="s">
+      <c r="A141" s="33" t="s">
         <v>211</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -20700,10 +20694,10 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="35"/>
+      <c r="A142" s="33"/>
     </row>
     <row r="143" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A143" s="35" t="s">
+      <c r="A143" s="33" t="s">
         <v>216</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -20717,7 +20711,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A144" s="35"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="1" t="s">
         <v>217</v>
       </c>
@@ -20729,7 +20723,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="A145" s="35"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="1" t="s">
         <v>217</v>
       </c>
@@ -20741,7 +20735,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="A146" s="35"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="1" t="s">
         <v>217</v>
       </c>
@@ -20753,7 +20747,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="A147" s="35"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="1" t="s">
         <v>219</v>
       </c>
@@ -20820,7 +20814,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="A154" s="35" t="s">
+      <c r="A154" s="33" t="s">
         <v>227</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -20834,10 +20828,10 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A155" s="36"/>
+      <c r="A155" s="34"/>
     </row>
     <row r="156" spans="1:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="A156" s="35" t="s">
+      <c r="A156" s="33" t="s">
         <v>232</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -20852,7 +20846,7 @@
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="A157" s="35"/>
+      <c r="A157" s="33"/>
       <c r="B157" s="1" t="s">
         <v>819</v>
       </c>
@@ -20865,7 +20859,7 @@
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="A158" s="35"/>
+      <c r="A158" s="33"/>
       <c r="B158" s="1" t="s">
         <v>820</v>
       </c>
@@ -20878,7 +20872,7 @@
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="A159" s="35"/>
+      <c r="A159" s="33"/>
       <c r="B159" s="1" t="s">
         <v>821</v>
       </c>
@@ -20890,7 +20884,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="A160" s="35"/>
+      <c r="A160" s="33"/>
       <c r="B160" s="1" t="s">
         <v>822</v>
       </c>
@@ -20902,7 +20896,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A161" s="35"/>
+      <c r="A161" s="33"/>
       <c r="B161" s="1" t="s">
         <v>235</v>
       </c>
@@ -21013,7 +21007,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A172" s="35" t="s">
+      <c r="A172" s="33" t="s">
         <v>245</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -21027,7 +21021,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A173" s="35"/>
+      <c r="A173" s="33"/>
       <c r="B173" s="1" t="s">
         <v>246</v>
       </c>
@@ -21039,7 +21033,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A174" s="35"/>
+      <c r="A174" s="33"/>
       <c r="B174" s="1" t="s">
         <v>246</v>
       </c>
@@ -21051,7 +21045,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A175" s="35"/>
+      <c r="A175" s="33"/>
       <c r="B175" s="1" t="s">
         <v>248</v>
       </c>
@@ -21085,7 +21079,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A179" s="35" t="s">
+      <c r="A179" s="33" t="s">
         <v>254</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -21099,7 +21093,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A180" s="35"/>
+      <c r="A180" s="33"/>
       <c r="B180" s="1" t="s">
         <v>858</v>
       </c>
@@ -21111,7 +21105,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A181" s="35"/>
+      <c r="A181" s="33"/>
       <c r="B181" s="1" t="s">
         <v>859</v>
       </c>
@@ -21123,7 +21117,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A182" s="35"/>
+      <c r="A182" s="33"/>
       <c r="B182" s="1" t="s">
         <v>860</v>
       </c>
@@ -21135,7 +21129,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A183" s="35"/>
+      <c r="A183" s="33"/>
       <c r="B183" s="1" t="s">
         <v>861</v>
       </c>
@@ -21147,7 +21141,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A184" s="35"/>
+      <c r="A184" s="33"/>
       <c r="B184" s="1" t="s">
         <v>862</v>
       </c>
@@ -21159,7 +21153,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A185" s="35"/>
+      <c r="A185" s="33"/>
       <c r="B185" s="1" t="s">
         <v>863</v>
       </c>
@@ -21171,7 +21165,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A186" s="35"/>
+      <c r="A186" s="33"/>
       <c r="B186" s="1" t="s">
         <v>864</v>
       </c>
@@ -21183,7 +21177,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A187" s="35"/>
+      <c r="A187" s="33"/>
       <c r="B187" s="1" t="s">
         <v>865</v>
       </c>
@@ -21195,7 +21189,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A188" s="35"/>
+      <c r="A188" s="33"/>
       <c r="B188" s="1" t="s">
         <v>257</v>
       </c>
@@ -21592,7 +21586,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A225" s="35" t="s">
+      <c r="A225" s="33" t="s">
         <v>275</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -21606,7 +21600,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A226" s="35"/>
+      <c r="A226" s="33"/>
       <c r="B226" s="1" t="s">
         <v>866</v>
       </c>
@@ -21618,7 +21612,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A227" s="35"/>
+      <c r="A227" s="33"/>
       <c r="B227" s="1" t="s">
         <v>867</v>
       </c>
@@ -21630,7 +21624,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A228" s="35"/>
+      <c r="A228" s="33"/>
       <c r="B228" s="1" t="s">
         <v>868</v>
       </c>
@@ -21642,7 +21636,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A229" s="35"/>
+      <c r="A229" s="33"/>
       <c r="B229" s="1" t="s">
         <v>278</v>
       </c>
@@ -21709,7 +21703,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A236" s="35" t="s">
+      <c r="A236" s="33" t="s">
         <v>286</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -21723,10 +21717,10 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="35"/>
+      <c r="A237" s="33"/>
     </row>
     <row r="238" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A238" s="35" t="s">
+      <c r="A238" s="33" t="s">
         <v>291</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -21740,10 +21734,10 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="35"/>
+      <c r="A239" s="33"/>
     </row>
     <row r="240" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A240" s="35" t="s">
+      <c r="A240" s="33" t="s">
         <v>296</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -21757,10 +21751,10 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A241" s="35"/>
+      <c r="A241" s="33"/>
     </row>
     <row r="242" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A242" s="35" t="s">
+      <c r="A242" s="33" t="s">
         <v>301</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -21774,10 +21768,10 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A243" s="35"/>
+      <c r="A243" s="33"/>
     </row>
     <row r="244" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A244" s="35" t="s">
+      <c r="A244" s="33" t="s">
         <v>306</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -21791,7 +21785,7 @@
       </c>
     </row>
     <row r="245" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A245" s="35"/>
+      <c r="A245" s="33"/>
       <c r="B245" s="1" t="s">
         <v>869</v>
       </c>
@@ -21803,7 +21797,7 @@
       </c>
     </row>
     <row r="246" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A246" s="35"/>
+      <c r="A246" s="33"/>
       <c r="B246" s="1" t="s">
         <v>309</v>
       </c>
@@ -21815,7 +21809,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A248" s="35" t="s">
+      <c r="A248" s="33" t="s">
         <v>313</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -21829,7 +21823,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A249" s="35"/>
+      <c r="A249" s="33"/>
       <c r="B249" s="1" t="s">
         <v>314</v>
       </c>
@@ -21841,7 +21835,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A250" s="35"/>
+      <c r="A250" s="33"/>
       <c r="B250" s="1" t="s">
         <v>316</v>
       </c>
@@ -21853,7 +21847,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A252" s="35" t="s">
+      <c r="A252" s="33" t="s">
         <v>320</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -21867,7 +21861,7 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A253" s="35"/>
+      <c r="A253" s="33"/>
       <c r="B253" s="1" t="s">
         <v>321</v>
       </c>
@@ -21879,7 +21873,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A254" s="35"/>
+      <c r="A254" s="33"/>
       <c r="B254" s="1" t="s">
         <v>323</v>
       </c>
@@ -21891,7 +21885,7 @@
       </c>
     </row>
     <row r="256" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A256" s="35" t="s">
+      <c r="A256" s="33" t="s">
         <v>327</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -21905,10 +21899,10 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A257" s="35"/>
+      <c r="A257" s="33"/>
     </row>
     <row r="258" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A258" s="35" t="s">
+      <c r="A258" s="33" t="s">
         <v>332</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -21922,7 +21916,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A260" s="35" t="s">
+      <c r="A260" s="33" t="s">
         <v>337</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -21940,7 +21934,7 @@
       <c r="B261" s="1"/>
     </row>
     <row r="262" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A262" s="35" t="s">
+      <c r="A262" s="33" t="s">
         <v>342</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -21954,7 +21948,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A264" s="35" t="s">
+      <c r="A264" s="33" t="s">
         <v>347</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -21972,7 +21966,7 @@
       <c r="B265" s="1"/>
     </row>
     <row r="266" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A266" s="35" t="s">
+      <c r="A266" s="33" t="s">
         <v>352</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -21986,7 +21980,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A268" s="35" t="s">
+      <c r="A268" s="33" t="s">
         <v>357</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -22000,7 +21994,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A269" s="35"/>
+      <c r="A269" s="33"/>
       <c r="B269" s="1" t="s">
         <v>890</v>
       </c>
@@ -22012,7 +22006,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A270" s="35"/>
+      <c r="A270" s="33"/>
       <c r="B270" s="1" t="s">
         <v>360</v>
       </c>
@@ -22024,16 +22018,16 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A271" s="35"/>
+      <c r="A271" s="33"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A272" s="35" t="s">
+      <c r="A272" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="B272" s="34" t="s">
+      <c r="B272" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="C272" s="34"/>
+      <c r="C272" s="37"/>
     </row>
     <row r="273" spans="1:4" ht="14" x14ac:dyDescent="0.2">
       <c r="B273" s="1" t="s">
@@ -22071,7 +22065,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A277" s="35" t="s">
+      <c r="A277" s="33" t="s">
         <v>401</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -22085,10 +22079,10 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A278" s="35"/>
+      <c r="A278" s="33"/>
     </row>
     <row r="279" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A279" s="35" t="s">
+      <c r="A279" s="33" t="s">
         <v>406</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -22102,7 +22096,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A281" s="35" t="s">
+      <c r="A281" s="33" t="s">
         <v>411</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -22120,7 +22114,7 @@
       <c r="B282" s="1"/>
     </row>
     <row r="283" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A283" s="35" t="s">
+      <c r="A283" s="33" t="s">
         <v>416</v>
       </c>
       <c r="B283" s="1" t="s">
@@ -22134,10 +22128,10 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A284" s="35"/>
+      <c r="A284" s="33"/>
     </row>
     <row r="285" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A285" s="35" t="s">
+      <c r="A285" s="33" t="s">
         <v>421</v>
       </c>
       <c r="B285" s="1" t="s">
@@ -22151,7 +22145,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A287" s="35" t="s">
+      <c r="A287" s="33" t="s">
         <v>426</v>
       </c>
       <c r="B287" s="1" t="s">
@@ -22169,7 +22163,7 @@
       <c r="B288" s="1"/>
     </row>
     <row r="289" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A289" s="35" t="s">
+      <c r="A289" s="33" t="s">
         <v>431</v>
       </c>
       <c r="B289" s="1" t="s">
@@ -22183,10 +22177,10 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A290" s="35"/>
+      <c r="A290" s="33"/>
     </row>
     <row r="291" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A291" s="35" t="s">
+      <c r="A291" s="33" t="s">
         <v>436</v>
       </c>
       <c r="B291" s="1" t="s">
@@ -22200,7 +22194,7 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A292" s="35"/>
+      <c r="A292" s="33"/>
       <c r="B292" s="1" t="s">
         <v>437</v>
       </c>
@@ -22212,7 +22206,7 @@
       </c>
     </row>
     <row r="293" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A293" s="35"/>
+      <c r="A293" s="33"/>
       <c r="B293" s="1" t="s">
         <v>439</v>
       </c>
@@ -22228,7 +22222,7 @@
       <c r="B294" s="1"/>
     </row>
     <row r="295" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A295" s="35" t="s">
+      <c r="A295" s="33" t="s">
         <v>443</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -22242,7 +22236,7 @@
       </c>
     </row>
     <row r="296" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A296" s="35"/>
+      <c r="A296" s="33"/>
       <c r="B296" s="1" t="s">
         <v>870</v>
       </c>
@@ -22254,7 +22248,7 @@
       </c>
     </row>
     <row r="297" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A297" s="35"/>
+      <c r="A297" s="33"/>
       <c r="B297" s="1" t="s">
         <v>871</v>
       </c>
@@ -22266,7 +22260,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A298" s="35"/>
+      <c r="A298" s="33"/>
       <c r="B298" s="1" t="s">
         <v>872</v>
       </c>
@@ -22278,7 +22272,7 @@
       </c>
     </row>
     <row r="299" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A299" s="35"/>
+      <c r="A299" s="33"/>
       <c r="B299" s="1" t="s">
         <v>446</v>
       </c>
@@ -22345,13 +22339,13 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A306" s="35" t="s">
+      <c r="A306" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="B306" s="34" t="s">
+      <c r="B306" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="C306" s="34"/>
+      <c r="C306" s="37"/>
     </row>
     <row r="307" spans="1:4" ht="14" x14ac:dyDescent="0.2">
       <c r="B307" s="1" t="s">
@@ -22390,7 +22384,7 @@
       <c r="B310" s="6"/>
     </row>
     <row r="311" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A311" s="35" t="s">
+      <c r="A311" s="33" t="s">
         <v>483</v>
       </c>
       <c r="B311" s="1" t="s">
@@ -22404,10 +22398,10 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A312" s="35"/>
+      <c r="A312" s="33"/>
     </row>
     <row r="313" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A313" s="35" t="s">
+      <c r="A313" s="33" t="s">
         <v>488</v>
       </c>
       <c r="B313" s="1" t="s">
@@ -22421,7 +22415,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A315" s="35" t="s">
+      <c r="A315" s="33" t="s">
         <v>493</v>
       </c>
       <c r="B315" s="1" t="s">
@@ -22435,7 +22429,7 @@
       </c>
     </row>
     <row r="316" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A316" s="35"/>
+      <c r="A316" s="33"/>
       <c r="B316" s="1" t="s">
         <v>494</v>
       </c>
@@ -22447,7 +22441,7 @@
       </c>
     </row>
     <row r="317" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A317" s="35"/>
+      <c r="A317" s="33"/>
       <c r="B317" s="1" t="s">
         <v>494</v>
       </c>
@@ -22481,7 +22475,7 @@
       </c>
     </row>
     <row r="320" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A320" s="35"/>
+      <c r="A320" s="33"/>
       <c r="B320" s="1" t="s">
         <v>498</v>
       </c>
@@ -22496,7 +22490,7 @@
       <c r="A321" s="1"/>
     </row>
     <row r="322" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A322" s="35" t="s">
+      <c r="A322" s="33" t="s">
         <v>507</v>
       </c>
       <c r="B322" s="1" t="s">
@@ -22505,12 +22499,12 @@
       <c r="C322" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D322" s="4" t="s">
-        <v>799</v>
+      <c r="D322" s="7" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A324" s="35" t="s">
+      <c r="A324" s="33" t="s">
         <v>512</v>
       </c>
       <c r="B324" s="1" t="s">
@@ -22519,12 +22513,12 @@
       <c r="C324" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D324" s="4" t="s">
-        <v>799</v>
+      <c r="D324" s="7" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A325" s="35"/>
+      <c r="A325" s="33"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="F325" s="6"/>
@@ -22552,7 +22546,7 @@
       <c r="F327" s="6"/>
     </row>
     <row r="328" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A328" s="35" t="s">
+      <c r="A328" s="33" t="s">
         <v>517</v>
       </c>
       <c r="B328" s="1" t="s">
@@ -22566,7 +22560,7 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A329" s="35"/>
+      <c r="A329" s="33"/>
       <c r="B329" s="1" t="s">
         <v>877</v>
       </c>
@@ -22578,7 +22572,7 @@
       </c>
     </row>
     <row r="330" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A330" s="35"/>
+      <c r="A330" s="33"/>
       <c r="B330" s="1" t="s">
         <v>520</v>
       </c>
@@ -22590,7 +22584,7 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A332" s="35" t="s">
+      <c r="A332" s="33" t="s">
         <v>524</v>
       </c>
       <c r="B332" s="1" t="s">
@@ -22604,7 +22598,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A333" s="35"/>
+      <c r="A333" s="33"/>
       <c r="B333" s="1" t="s">
         <v>525</v>
       </c>
@@ -22616,7 +22610,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A334" s="35"/>
+      <c r="A334" s="33"/>
       <c r="B334" s="1" t="s">
         <v>525</v>
       </c>
@@ -22628,7 +22622,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A335" s="35"/>
+      <c r="A335" s="33"/>
       <c r="B335" s="1" t="s">
         <v>525</v>
       </c>
@@ -22640,7 +22634,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" ht="14" x14ac:dyDescent="0.2">
-      <c r="A336" s="35"/>
+      <c r="A336" s="33"/>
       <c r="B336" s="1" t="s">
         <v>525</v>
       </c>
@@ -22652,7 +22646,7 @@
       </c>
     </row>
     <row r="337" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A337" s="35"/>
+      <c r="A337" s="33"/>
       <c r="B337" s="1" t="s">
         <v>527</v>
       </c>
@@ -22742,7 +22736,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A345" s="35"/>
+      <c r="A345" s="33"/>
       <c r="B345" s="1" t="s">
         <v>531</v>
       </c>
@@ -22765,7 +22759,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A348" s="35" t="s">
+      <c r="A348" s="33" t="s">
         <v>537</v>
       </c>
       <c r="B348" s="1" t="s">
@@ -22779,7 +22773,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A349" s="35"/>
+      <c r="A349" s="33"/>
       <c r="B349" s="1" t="s">
         <v>884</v>
       </c>
@@ -22791,7 +22785,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A350" s="35"/>
+      <c r="A350" s="33"/>
       <c r="B350" s="1" t="s">
         <v>885</v>
       </c>
@@ -22803,7 +22797,7 @@
       </c>
     </row>
     <row r="351" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A351" s="35"/>
+      <c r="A351" s="33"/>
       <c r="B351" s="1" t="s">
         <v>540</v>
       </c>
@@ -22838,7 +22832,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A355" s="35" t="s">
+      <c r="A355" s="33" t="s">
         <v>546</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -22852,7 +22846,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A357" s="35" t="s">
+      <c r="A357" s="33" t="s">
         <v>556</v>
       </c>
       <c r="B357" s="1" t="s">
@@ -22870,7 +22864,7 @@
       <c r="B358" s="1"/>
     </row>
     <row r="359" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A359" s="35" t="s">
+      <c r="A359" s="33" t="s">
         <v>561</v>
       </c>
       <c r="B359" s="1" t="s">
@@ -22884,10 +22878,10 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A360" s="35"/>
+      <c r="A360" s="33"/>
     </row>
     <row r="361" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A361" s="35" t="s">
+      <c r="A361" s="33" t="s">
         <v>566</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -22901,7 +22895,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A363" s="35" t="s">
+      <c r="A363" s="33" t="s">
         <v>571</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -22919,7 +22913,7 @@
       <c r="B364" s="1"/>
     </row>
     <row r="365" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A365" s="35" t="s">
+      <c r="A365" s="33" t="s">
         <v>576</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -22933,7 +22927,7 @@
       </c>
     </row>
     <row r="366" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A366" s="35"/>
+      <c r="A366" s="33"/>
       <c r="B366" s="1" t="s">
         <v>577</v>
       </c>
@@ -22945,7 +22939,7 @@
       </c>
     </row>
     <row r="367" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A367" s="35"/>
+      <c r="A367" s="33"/>
       <c r="B367" s="1" t="s">
         <v>579</v>
       </c>
@@ -22959,8 +22953,8 @@
     <row r="368" spans="1:4" ht="14" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
     </row>
-    <row r="369" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A369" s="35" t="s">
+    <row r="369" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A369" s="33" t="s">
         <v>583</v>
       </c>
       <c r="B369" s="1" t="s">
@@ -22969,12 +22963,12 @@
       <c r="C369" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D369" s="4" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A371" s="35" t="s">
+      <c r="D369" s="7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A371" s="33" t="s">
         <v>588</v>
       </c>
       <c r="B371" s="1" t="s">
@@ -22987,8 +22981,8 @@
         <v>795</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A373" s="35" t="s">
+    <row r="373" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A373" s="33" t="s">
         <v>593</v>
       </c>
       <c r="B373" s="1" t="s">
@@ -23001,8 +22995,8 @@
         <v>777</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A374" s="35" t="s">
+    <row r="374" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A374" s="33" t="s">
         <v>593</v>
       </c>
       <c r="B374" s="1" t="s">
@@ -23015,8 +23009,8 @@
         <v>777</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A375" s="35" t="s">
+    <row r="375" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A375" s="33" t="s">
         <v>593</v>
       </c>
       <c r="B375" s="1" t="s">
@@ -23029,11 +23023,11 @@
         <v>777</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="14" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
     </row>
-    <row r="377" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A377" s="35" t="s">
+    <row r="377" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A377" s="33" t="s">
         <v>600</v>
       </c>
       <c r="B377" s="1" t="s">
@@ -23046,250 +23040,254 @@
         <v>777</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A379" s="35" t="s">
+    <row r="378" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A378" s="33"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="E378" s="21"/>
+      <c r="F378" s="21"/>
+    </row>
+    <row r="379" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A379" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="B379" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="C379" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="D379" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="E379" s="21"/>
+      <c r="F379" s="21"/>
+    </row>
+    <row r="380" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="E380" s="21"/>
+    </row>
+    <row r="381" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A381" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="B381" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="C381" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D379" s="4" t="s">
+      <c r="D381" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A381" s="35" t="s">
+    <row r="383" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A383" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="C383" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="D381" s="4" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A382" s="35"/>
-      <c r="B382" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D382" s="4" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A383" s="35"/>
-      <c r="B383" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A384" s="1"/>
+    <row r="384" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A384" s="33"/>
+      <c r="B384" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="385" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A385" s="35" t="s">
+      <c r="A385" s="33"/>
+      <c r="B385" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="387" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A387" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="B387" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="C387" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="D385" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A386" s="35"/>
-    </row>
-    <row r="387" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A387" s="35" t="s">
-        <v>632</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>795</v>
       </c>
     </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A388" s="33"/>
+    </row>
     <row r="389" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A389" s="35" t="s">
+      <c r="A389" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A391" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="B391" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="C391" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D389" s="4" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A390" s="1"/>
-      <c r="B390" s="1"/>
-    </row>
-    <row r="391" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A391" s="35">
+      <c r="D391" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+    </row>
+    <row r="393" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A393" s="33">
         <v>65550098</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="B393" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="C393" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D391" s="4" t="s">
+      <c r="D393" s="4" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A393" s="35" t="s">
+    <row r="395" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A395" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="B393" s="1" t="s">
+      <c r="B395" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="C395" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="D393" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A394" s="35"/>
-      <c r="B394" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D394" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A395" s="35"/>
-      <c r="B395" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>795</v>
       </c>
     </row>
+    <row r="396" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A396" s="33"/>
+      <c r="B396" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D396" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
     <row r="397" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A397" s="35" t="s">
-        <v>657</v>
-      </c>
+      <c r="A397" s="33"/>
       <c r="B397" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A398" s="35"/>
-      <c r="B398" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D398" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
     <row r="399" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A399" s="35"/>
+      <c r="A399" s="33" t="s">
+        <v>657</v>
+      </c>
       <c r="B399" s="1" t="s">
         <v>658</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A400" s="35"/>
+      <c r="A400" s="33"/>
       <c r="B400" s="1" t="s">
         <v>658</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D400" s="4" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A401" s="35"/>
+      <c r="A401" s="33"/>
       <c r="B401" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D401" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A402" s="33"/>
+      <c r="B402" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D402" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A402" s="35"/>
-      <c r="B402" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>780</v>
-      </c>
-    </row>
     <row r="403" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A403" s="33"/>
       <c r="B403" s="1" t="s">
         <v>660</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A404" s="33"/>
       <c r="B404" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>664</v>
@@ -23300,7 +23298,7 @@
     </row>
     <row r="405" spans="1:4" ht="14" x14ac:dyDescent="0.2">
       <c r="B405" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>666</v>
@@ -23311,145 +23309,143 @@
     </row>
     <row r="406" spans="1:4" ht="14" x14ac:dyDescent="0.2">
       <c r="B406" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C406" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>780</v>
       </c>
     </row>
+    <row r="407" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="B407" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
     <row r="408" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A408" s="35" t="s">
+      <c r="B408" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D408" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A410" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="B410" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C408" s="1" t="s">
+      <c r="C410" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="D408" s="4" t="s">
+      <c r="D410" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A409" s="35"/>
-      <c r="B409" s="1"/>
-    </row>
-    <row r="410" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A410" s="35" t="s">
+    <row r="411" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A411" s="33"/>
+      <c r="B411" s="1"/>
+    </row>
+    <row r="412" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A412" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="B412" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C410" s="1" t="s">
+      <c r="C412" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="D410" s="4" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A411" s="35"/>
-      <c r="B411" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D411" s="4" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A412" s="35"/>
-      <c r="B412" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>777</v>
       </c>
     </row>
+    <row r="413" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A413" s="33"/>
+      <c r="B413" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
     <row r="414" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A414" s="35" t="s">
+      <c r="A414" s="33"/>
+      <c r="B414" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A416" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="B416" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C414" s="1" t="s">
+      <c r="C416" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="D414" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A415" s="35"/>
-      <c r="B415" s="1"/>
-    </row>
-    <row r="416" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A416" s="35" t="s">
-        <v>685</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>795</v>
       </c>
     </row>
+    <row r="417" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A417" s="33"/>
+      <c r="B417" s="1"/>
+    </row>
     <row r="418" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A418" s="35" t="s">
-        <v>690</v>
+      <c r="A418" s="33" t="s">
+        <v>685</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A419" s="35"/>
-      <c r="B419" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D419" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
     <row r="420" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A420" s="35"/>
+      <c r="A420" s="33" t="s">
+        <v>690</v>
+      </c>
       <c r="B420" s="1" t="s">
-        <v>879</v>
+        <v>691</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A421" s="35"/>
+      <c r="A421" s="33"/>
       <c r="B421" s="1" t="s">
-        <v>693</v>
+        <v>878</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>695</v>
@@ -23459,9 +23455,9 @@
       </c>
     </row>
     <row r="422" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A422" s="35"/>
+      <c r="A422" s="33"/>
       <c r="B422" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>697</v>
@@ -23471,358 +23467,382 @@
       </c>
     </row>
     <row r="423" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A423" s="33"/>
       <c r="B423" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C423" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>795</v>
       </c>
     </row>
+    <row r="424" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A424" s="33"/>
+      <c r="B424" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D424" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
     <row r="425" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A425" s="35" t="s">
-        <v>699</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>702</v>
+      <c r="B425" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A426" s="35"/>
-      <c r="B426" s="1"/>
-    </row>
     <row r="427" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A427" s="35" t="s">
-        <v>704</v>
+      <c r="A427" s="33" t="s">
+        <v>699</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A428" s="35"/>
+    <row r="428" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A428" s="33"/>
+      <c r="B428" s="1"/>
     </row>
     <row r="429" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A429" s="35" t="s">
-        <v>709</v>
+      <c r="A429" s="33" t="s">
+        <v>704</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>795</v>
       </c>
     </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A430" s="33"/>
+    </row>
     <row r="431" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="33" t="s">
+        <v>709</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D431" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="B433" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C431" s="1" t="s">
+      <c r="C433" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="D431" s="4" t="s">
+      <c r="D433" s="4" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A432" s="35"/>
-      <c r="B432" s="1"/>
-    </row>
-    <row r="433" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A433" s="38" t="s">
+    <row r="434" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A434" s="33"/>
+      <c r="B434" s="1"/>
+    </row>
+    <row r="435" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A435" s="36" t="s">
         <v>719</v>
       </c>
-      <c r="B433" s="8" t="s">
+      <c r="B435" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="C433" s="8" t="s">
+      <c r="C435" s="7" t="s">
         <v>722</v>
-      </c>
-      <c r="D433" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A434" s="1"/>
-    </row>
-    <row r="435" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A435" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B435" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="C435" s="8" t="s">
-        <v>727</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>795</v>
       </c>
     </row>
+    <row r="436" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A436" s="1"/>
+    </row>
     <row r="437" spans="1:4" ht="14" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B437" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="C437" s="8" t="s">
-        <v>732</v>
+        <v>724</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A438" s="35"/>
-      <c r="B438" s="6"/>
-    </row>
     <row r="439" spans="1:4" ht="14" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B439" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="C439" s="8" t="s">
-        <v>737</v>
+        <v>729</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C439" s="7" t="s">
+        <v>732</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A440" s="1"/>
+      <c r="A440" s="33"/>
+      <c r="B440" s="6"/>
     </row>
     <row r="441" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A441" s="35" t="s">
-        <v>739</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>742</v>
+      <c r="A441" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>795</v>
       </c>
     </row>
+    <row r="442" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A442" s="1"/>
+    </row>
     <row r="443" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A443" s="35" t="s">
+      <c r="A443" s="33" t="s">
+        <v>739</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D443" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A445" s="33" t="s">
         <v>744</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C443" s="1" t="s">
+      <c r="C445" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D443" s="4" t="s">
+      <c r="D445" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A446" s="33"/>
+    </row>
+    <row r="447" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A447" s="33" t="s">
+        <v>749</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D447" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A448" s="33"/>
+      <c r="B448" s="1"/>
+    </row>
+    <row r="449" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A449" s="33" t="s">
+        <v>754</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D449" s="4" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A444" s="35"/>
-    </row>
-    <row r="445" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A445" s="35" t="s">
-        <v>749</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D445" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A446" s="35"/>
-      <c r="B446" s="1"/>
-    </row>
-    <row r="447" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A447" s="35" t="s">
-        <v>754</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="D447" s="4" t="s">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A450" s="33"/>
+    </row>
+    <row r="451" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A451" s="33" t="s">
+        <v>759</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D451" s="7" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A448" s="35"/>
-    </row>
-    <row r="449" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A449" s="35" t="s">
-        <v>759</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D449" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A451" s="35" t="s">
+    <row r="453" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A453" s="33" t="s">
         <v>764</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C451" s="1" t="s">
+      <c r="C453" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="D451" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A452" s="35"/>
-      <c r="B452" s="1"/>
-    </row>
-    <row r="453" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A453" s="35" t="s">
+      <c r="D453" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A454" s="33"/>
+      <c r="B454" s="1"/>
+    </row>
+    <row r="455" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A455" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C453" s="1" t="s">
+      <c r="C455" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="D453" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A455" s="33" t="s">
-        <v>910</v>
-      </c>
-      <c r="B455" s="33" t="s">
-        <v>905</v>
-      </c>
-      <c r="C455" s="33" t="s">
-        <v>907</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A456" s="33"/>
-    </row>
     <row r="457" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A457" s="33" t="s">
-        <v>917</v>
-      </c>
-      <c r="B457" s="33" t="s">
-        <v>911</v>
-      </c>
-      <c r="C457" s="33" t="s">
-        <v>913</v>
+      <c r="A457" s="32" t="s">
+        <v>910</v>
+      </c>
+      <c r="B457" s="32" t="s">
+        <v>905</v>
+      </c>
+      <c r="C457" s="32" t="s">
+        <v>907</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A458" s="33"/>
-      <c r="B458" s="33" t="s">
+      <c r="A458" s="32"/>
+    </row>
+    <row r="459" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A459" s="32" t="s">
+        <v>917</v>
+      </c>
+      <c r="B459" s="32" t="s">
+        <v>911</v>
+      </c>
+      <c r="C459" s="32" t="s">
+        <v>913</v>
+      </c>
+      <c r="D459" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A460" s="32"/>
+      <c r="B460" s="32" t="s">
         <v>918</v>
       </c>
-      <c r="C458" s="33" t="s">
+      <c r="C460" s="32" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A459" s="33"/>
-      <c r="B459" s="33" t="s">
+    <row r="461" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A461" s="32"/>
+      <c r="B461" s="32" t="s">
         <v>913</v>
       </c>
-      <c r="C459" s="33" t="s">
+      <c r="C461" s="32" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A461" s="6" t="s">
+    <row r="463" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A463" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="B461" s="6" t="s">
+      <c r="B463" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="C461" s="6" t="s">
+      <c r="C463" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="D461" s="4" t="s">
+      <c r="D463" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A462" s="6"/>
-      <c r="B462" s="6" t="s">
+    <row r="464" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A464" s="6"/>
+      <c r="B464" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="C462" s="6" t="s">
+      <c r="C464" s="6" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A463" s="6"/>
-      <c r="B463" s="6" t="s">
+    <row r="465" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+      <c r="A465" s="6"/>
+      <c r="B465" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="C463" s="6" t="s">
+      <c r="C465" s="6" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A465" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="B465" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="C465" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="D465" s="4" t="s">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A467" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C467" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D467" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A473" s="35"/>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A475" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
